--- a/doc/table.xlsx
+++ b/doc/table.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="12" windowWidth="19200" windowHeight="11868" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="12" windowWidth="19200" windowHeight="11868"/>
   </bookViews>
   <sheets>
     <sheet name="不規則動詞" sheetId="1" r:id="rId1"/>
@@ -16,451 +16,761 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="241">
+  <si>
+    <t>主格</t>
+  </si>
+  <si>
+    <t>所有格</t>
+  </si>
+  <si>
+    <t>受格</t>
+  </si>
+  <si>
+    <t>所有代名詞</t>
+  </si>
+  <si>
+    <t>第一人稱單數</t>
+  </si>
+  <si>
+    <t>mine</t>
+  </si>
+  <si>
+    <t>第二人稱單數</t>
+  </si>
+  <si>
+    <t>you</t>
+  </si>
+  <si>
+    <t>yours</t>
+  </si>
+  <si>
+    <t>第三人稱單數</t>
+  </si>
+  <si>
+    <t>his</t>
+  </si>
+  <si>
+    <t>him</t>
+  </si>
+  <si>
+    <t>her</t>
+  </si>
+  <si>
+    <t>hers</t>
+  </si>
+  <si>
+    <t>its</t>
+  </si>
+  <si>
+    <t>it</t>
+  </si>
+  <si>
+    <t>第一人稱複數</t>
+  </si>
+  <si>
+    <t>us</t>
+  </si>
+  <si>
+    <t>ours</t>
+  </si>
+  <si>
+    <t>第二人稱複數</t>
+  </si>
+  <si>
+    <t>第三人稱複數</t>
+  </si>
+  <si>
+    <t>them</t>
+  </si>
+  <si>
+    <t>theirs</t>
+  </si>
+  <si>
+    <t>我</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>you</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>he</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>他</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>她</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>它、牠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>its</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>它的、牠的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我們</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你們</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>they</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>他們</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>their</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>your</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>our</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>my</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>his</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>他的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>her</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>她的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>it</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>she</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>we</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>me</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我們的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你們的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>他們的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代名詞種類</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中譯</t>
+  </si>
+  <si>
+    <t>原形動詞</t>
+  </si>
+  <si>
+    <t>過去式</t>
+  </si>
+  <si>
+    <t>過去分詞</t>
+  </si>
   <si>
     <t>打</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>hit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>原形動詞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>過去式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>過去分詞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中譯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>握住</t>
   </si>
   <si>
     <t>hold</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>held</t>
+  </si>
+  <si>
+    <t>傷害</t>
   </si>
   <si>
     <t>hurt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保持</t>
   </si>
   <si>
     <t>keep</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kept</t>
+  </si>
+  <si>
+    <t>知道</t>
   </si>
   <si>
     <t>know</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>knew</t>
+  </si>
+  <si>
+    <t>known</t>
+  </si>
+  <si>
+    <t>放置（下蛋）</t>
   </si>
   <si>
     <t>lay</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>laid</t>
+  </si>
+  <si>
+    <t>帶領</t>
   </si>
   <si>
     <t>lead</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>led</t>
+  </si>
+  <si>
+    <t>學習</t>
   </si>
   <si>
     <t>learn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>learned/learnt</t>
+  </si>
+  <si>
+    <t>離開</t>
   </si>
   <si>
     <t>leave</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>left</t>
+  </si>
+  <si>
+    <t>借出</t>
   </si>
   <si>
     <t>lend</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lent</t>
+  </si>
+  <si>
+    <t>讓、允許</t>
   </si>
   <si>
     <t>let</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>躺</t>
   </si>
   <si>
     <t>lie</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lain</t>
+  </si>
+  <si>
+    <t>點燃、照亮</t>
   </si>
   <si>
     <t>light</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lit/lighted</t>
+  </si>
+  <si>
+    <t>失去</t>
   </si>
   <si>
     <t>lose</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lost</t>
+  </si>
+  <si>
+    <t>製作；使</t>
   </si>
   <si>
     <t>make</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>意指</t>
   </si>
   <si>
     <t>mean</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>meant</t>
+  </si>
+  <si>
+    <t>遇見</t>
   </si>
   <si>
     <t>meet</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>met</t>
+  </si>
+  <si>
+    <t>付（錢）</t>
   </si>
   <si>
     <t>pay</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>paid</t>
+  </si>
+  <si>
+    <t>放、置</t>
   </si>
   <si>
     <t>put</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辭職；放棄</t>
   </si>
   <si>
     <t>quit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quit/quitted</t>
+  </si>
+  <si>
+    <t>讀</t>
   </si>
   <si>
     <t>read</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>騎乘</t>
   </si>
   <si>
     <t>ride</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rode</t>
+  </si>
+  <si>
+    <t>ridden</t>
+  </si>
+  <si>
+    <t>（鈴/鐘）響</t>
   </si>
   <si>
     <t>ring</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rang</t>
+  </si>
+  <si>
+    <t>rung</t>
+  </si>
+  <si>
+    <t>上升</t>
   </si>
   <si>
     <t>rise</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rose</t>
+  </si>
+  <si>
+    <t>risen</t>
+  </si>
+  <si>
+    <t>跑</t>
   </si>
   <si>
     <t>run</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ran</t>
+  </si>
+  <si>
+    <t>說</t>
   </si>
   <si>
     <t>say</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>said</t>
+  </si>
+  <si>
+    <t>看見</t>
   </si>
   <si>
     <t>see</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>saw</t>
+  </si>
+  <si>
+    <t>seen</t>
+  </si>
+  <si>
+    <t>賣</t>
   </si>
   <si>
     <t>sell</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sold</t>
+  </si>
+  <si>
+    <t>寄送</t>
   </si>
   <si>
     <t>send</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sent</t>
+  </si>
+  <si>
+    <t>設定；擺放</t>
   </si>
   <si>
     <t>set</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>縫</t>
   </si>
   <si>
     <t>sew</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sewed</t>
+  </si>
+  <si>
+    <t>sewn/sewed</t>
+  </si>
+  <si>
+    <t>發光；擦亮</t>
   </si>
   <si>
     <t>shine</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shone/shined</t>
+  </si>
+  <si>
+    <t>顯示；展現</t>
   </si>
   <si>
     <t>show</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>showed</t>
+  </si>
+  <si>
+    <t>shown/showed</t>
+  </si>
+  <si>
+    <t>唱</t>
   </si>
   <si>
     <t>sing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sang</t>
+  </si>
+  <si>
+    <t>sung</t>
+  </si>
+  <si>
+    <t>下沉</t>
   </si>
   <si>
     <t>sink</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sank</t>
+  </si>
+  <si>
+    <t>sunk</t>
+  </si>
+  <si>
+    <t>坐</t>
   </si>
   <si>
     <t>sit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sat</t>
+  </si>
+  <si>
+    <t>睡</t>
   </si>
   <si>
     <t>sleep</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>slept</t>
+  </si>
+  <si>
+    <t>滑動</t>
   </si>
   <si>
     <t>slide</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>slid</t>
+  </si>
+  <si>
+    <t>聞；聞起來</t>
   </si>
   <si>
     <t>smell</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>smelled/smelt</t>
+  </si>
+  <si>
+    <t>拼字</t>
   </si>
   <si>
     <t>spell</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spelled/spelt</t>
+  </si>
+  <si>
+    <t>花費（時間/金錢）</t>
   </si>
   <si>
     <t>spend</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spent</t>
+  </si>
+  <si>
+    <t>站立</t>
   </si>
   <si>
     <t>stand</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stood</t>
+  </si>
+  <si>
+    <t>偷</t>
   </si>
   <si>
     <t>steal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stole</t>
+  </si>
+  <si>
+    <t>stolen</t>
+  </si>
+  <si>
+    <t>黏住；貼上</t>
   </si>
   <si>
     <t>stick</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stuck</t>
+  </si>
+  <si>
+    <t>游泳</t>
   </si>
   <si>
     <t>swim</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swam</t>
+  </si>
+  <si>
+    <t>swum</t>
+  </si>
+  <si>
+    <t>擺動；盪</t>
   </si>
   <si>
     <t>swing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swung</t>
+  </si>
+  <si>
+    <t>拿；帶</t>
   </si>
   <si>
     <t>take</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>took</t>
+  </si>
+  <si>
+    <t>taken</t>
+  </si>
+  <si>
+    <t>教</t>
   </si>
   <si>
     <t>teach</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>taught</t>
+  </si>
+  <si>
+    <t>撕裂</t>
   </si>
   <si>
     <t>tear</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tore</t>
+  </si>
+  <si>
+    <t>torn</t>
+  </si>
+  <si>
+    <t>告訴</t>
   </si>
   <si>
     <t>tell</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>told</t>
+  </si>
+  <si>
+    <t>想；認為</t>
   </si>
   <si>
     <t>think</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>thought</t>
+  </si>
+  <si>
+    <t>丟；投</t>
   </si>
   <si>
     <t>throw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>threw</t>
+  </si>
+  <si>
+    <t>thrown</t>
+  </si>
+  <si>
+    <t>了解</t>
   </si>
   <si>
     <t>understand</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>understood</t>
+  </si>
+  <si>
+    <t>醒來</t>
   </si>
   <si>
     <t>wake</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>woke</t>
+  </si>
+  <si>
+    <t>woken/waked</t>
+  </si>
+  <si>
+    <t>穿戴</t>
+  </si>
+  <si>
+    <t>wear</t>
+  </si>
+  <si>
+    <t>wore</t>
+  </si>
+  <si>
+    <t>worn</t>
+  </si>
+  <si>
+    <t>贏</t>
   </si>
   <si>
     <t>win</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>寫</t>
   </si>
   <si>
     <t>write</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wear</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主格</t>
-  </si>
-  <si>
-    <t>所有格</t>
-  </si>
-  <si>
-    <t>受格</t>
-  </si>
-  <si>
-    <t>所有代名詞</t>
-  </si>
-  <si>
-    <t>第一人稱單數</t>
-  </si>
-  <si>
-    <t>mine</t>
-  </si>
-  <si>
-    <t>第二人稱單數</t>
-  </si>
-  <si>
-    <t>you</t>
-  </si>
-  <si>
-    <t>yours</t>
-  </si>
-  <si>
-    <t>第三人稱單數</t>
-  </si>
-  <si>
-    <t>his</t>
-  </si>
-  <si>
-    <t>him</t>
-  </si>
-  <si>
-    <t>her</t>
-  </si>
-  <si>
-    <t>hers</t>
-  </si>
-  <si>
-    <t>its</t>
-  </si>
-  <si>
-    <t>it</t>
-  </si>
-  <si>
-    <t>第一人稱複數</t>
-  </si>
-  <si>
-    <t>us</t>
-  </si>
-  <si>
-    <t>ours</t>
-  </si>
-  <si>
-    <t>第二人稱複數</t>
-  </si>
-  <si>
-    <t>第三人稱複數</t>
-  </si>
-  <si>
-    <t>them</t>
-  </si>
-  <si>
-    <t>theirs</t>
-  </si>
-  <si>
-    <t>我</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>you</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>he</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>他</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>她</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>它、牠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>its</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>它的、牠的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我們</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你們</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>they</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>他們</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>their</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>your</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>our</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>my</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>his</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>他的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>her</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>她的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>it</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>she</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>I</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>we</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>me</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我們的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你們的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>他們的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>代名詞種類</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wrote</t>
+  </si>
+  <si>
+    <t>written</t>
   </si>
 </sst>
 </file>
@@ -819,324 +1129,830 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D60"/>
+  <dimension ref="A1:D58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D58" sqref="D58"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="1" max="1" width="16.109375" customWidth="1"/>
+    <col min="2" max="2" width="14.44140625" customWidth="1"/>
+    <col min="3" max="3" width="18.77734375" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>56</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
+        <v>57</v>
       </c>
       <c r="D1" t="s">
-        <v>4</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="C2" t="s">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="D2" t="s">
-        <v>1</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>61</v>
+      </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>62</v>
+      </c>
+      <c r="C3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>64</v>
+      </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>65</v>
+      </c>
+      <c r="C4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>66</v>
+      </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>67</v>
+      </c>
+      <c r="C5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>69</v>
+      </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>70</v>
+      </c>
+      <c r="C6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>73</v>
+      </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>74</v>
+      </c>
+      <c r="C7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>76</v>
+      </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>77</v>
+      </c>
+      <c r="C8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D8" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>79</v>
+      </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>80</v>
+      </c>
+      <c r="C9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>82</v>
+      </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>83</v>
+      </c>
+      <c r="C10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D10" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>85</v>
+      </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>86</v>
+      </c>
+      <c r="C11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D11" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>88</v>
+      </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>89</v>
+      </c>
+      <c r="C12" t="s">
+        <v>89</v>
+      </c>
+      <c r="D12" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>90</v>
+      </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>91</v>
+      </c>
+      <c r="C13" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>93</v>
+      </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>94</v>
+      </c>
+      <c r="C14" t="s">
+        <v>95</v>
+      </c>
+      <c r="D14" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>96</v>
+      </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>97</v>
+      </c>
+      <c r="C15" t="s">
+        <v>98</v>
+      </c>
+      <c r="D15" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>99</v>
+      </c>
       <c r="B16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2">
+        <v>100</v>
+      </c>
+      <c r="C16" t="s">
+        <v>101</v>
+      </c>
+      <c r="D16" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>102</v>
+      </c>
       <c r="B17" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2">
+        <v>103</v>
+      </c>
+      <c r="C17" t="s">
+        <v>104</v>
+      </c>
+      <c r="D17" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>105</v>
+      </c>
       <c r="B18" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2">
+        <v>106</v>
+      </c>
+      <c r="C18" t="s">
+        <v>107</v>
+      </c>
+      <c r="D18" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>108</v>
+      </c>
       <c r="B19" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2">
+        <v>109</v>
+      </c>
+      <c r="C19" t="s">
+        <v>110</v>
+      </c>
+      <c r="D19" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>111</v>
+      </c>
       <c r="B20" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2">
+        <v>112</v>
+      </c>
+      <c r="C20" t="s">
+        <v>112</v>
+      </c>
+      <c r="D20" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>113</v>
+      </c>
       <c r="B21" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2">
+        <v>114</v>
+      </c>
+      <c r="C21" t="s">
+        <v>115</v>
+      </c>
+      <c r="D21" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>116</v>
+      </c>
       <c r="B22" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2">
+        <v>117</v>
+      </c>
+      <c r="C22" t="s">
+        <v>117</v>
+      </c>
+      <c r="D22" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>118</v>
+      </c>
       <c r="B23" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2">
+        <v>119</v>
+      </c>
+      <c r="C23" t="s">
+        <v>120</v>
+      </c>
+      <c r="D23" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>122</v>
+      </c>
+      <c r="B24" t="s">
+        <v>123</v>
+      </c>
+      <c r="C24" t="s">
+        <v>124</v>
+      </c>
+      <c r="D24" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>126</v>
+      </c>
       <c r="B25" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2">
+        <v>127</v>
+      </c>
+      <c r="C25" t="s">
+        <v>128</v>
+      </c>
+      <c r="D25" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>130</v>
+      </c>
       <c r="B26" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="27" spans="2:2">
+        <v>131</v>
+      </c>
+      <c r="C26" t="s">
+        <v>132</v>
+      </c>
+      <c r="D26" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>133</v>
+      </c>
       <c r="B27" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="28" spans="2:2">
+        <v>134</v>
+      </c>
+      <c r="C27" t="s">
+        <v>135</v>
+      </c>
+      <c r="D27" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>136</v>
+      </c>
       <c r="B28" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="29" spans="2:2">
+        <v>137</v>
+      </c>
+      <c r="C28" t="s">
+        <v>138</v>
+      </c>
+      <c r="D28" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>140</v>
+      </c>
       <c r="B29" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="30" spans="2:2">
+        <v>141</v>
+      </c>
+      <c r="C29" t="s">
+        <v>142</v>
+      </c>
+      <c r="D29" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>143</v>
+      </c>
       <c r="B30" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="31" spans="2:2">
+        <v>144</v>
+      </c>
+      <c r="C30" t="s">
+        <v>145</v>
+      </c>
+      <c r="D30" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>146</v>
+      </c>
       <c r="B31" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="32" spans="2:2">
+        <v>147</v>
+      </c>
+      <c r="C31" t="s">
+        <v>147</v>
+      </c>
+      <c r="D31" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>148</v>
+      </c>
       <c r="B32" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2">
+        <v>149</v>
+      </c>
+      <c r="C32" t="s">
+        <v>150</v>
+      </c>
+      <c r="D32" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>152</v>
+      </c>
       <c r="B33" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2">
+        <v>153</v>
+      </c>
+      <c r="C33" t="s">
+        <v>154</v>
+      </c>
+      <c r="D33" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>155</v>
+      </c>
       <c r="B34" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2">
+        <v>156</v>
+      </c>
+      <c r="C34" t="s">
+        <v>157</v>
+      </c>
+      <c r="D34" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>159</v>
+      </c>
       <c r="B35" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2">
+        <v>160</v>
+      </c>
+      <c r="C35" t="s">
+        <v>161</v>
+      </c>
+      <c r="D35" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>163</v>
+      </c>
       <c r="B36" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="37" spans="2:2">
+        <v>164</v>
+      </c>
+      <c r="C36" t="s">
+        <v>165</v>
+      </c>
+      <c r="D36" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>167</v>
+      </c>
       <c r="B37" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="38" spans="2:2">
+        <v>168</v>
+      </c>
+      <c r="C37" t="s">
+        <v>169</v>
+      </c>
+      <c r="D37" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>170</v>
+      </c>
       <c r="B38" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="39" spans="2:2">
+        <v>171</v>
+      </c>
+      <c r="C38" t="s">
+        <v>172</v>
+      </c>
+      <c r="D38" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>173</v>
+      </c>
       <c r="B39" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="40" spans="2:2">
+        <v>174</v>
+      </c>
+      <c r="C39" t="s">
+        <v>175</v>
+      </c>
+      <c r="D39" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>176</v>
+      </c>
       <c r="B40" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="41" spans="2:2">
+        <v>177</v>
+      </c>
+      <c r="C40" t="s">
+        <v>178</v>
+      </c>
+      <c r="D40" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>179</v>
+      </c>
       <c r="B41" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="42" spans="2:2">
+        <v>180</v>
+      </c>
+      <c r="C41" t="s">
+        <v>181</v>
+      </c>
+      <c r="D41" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>182</v>
+      </c>
       <c r="B42" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="43" spans="2:2">
+        <v>183</v>
+      </c>
+      <c r="C42" t="s">
+        <v>184</v>
+      </c>
+      <c r="D42" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>185</v>
+      </c>
       <c r="B43" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="44" spans="2:2">
+        <v>186</v>
+      </c>
+      <c r="C43" t="s">
+        <v>187</v>
+      </c>
+      <c r="D43" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>188</v>
+      </c>
       <c r="B44" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="45" spans="2:2">
+        <v>189</v>
+      </c>
+      <c r="C44" t="s">
+        <v>190</v>
+      </c>
+      <c r="D44" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>192</v>
+      </c>
       <c r="B45" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="47" spans="2:2">
+        <v>193</v>
+      </c>
+      <c r="C45" t="s">
+        <v>194</v>
+      </c>
+      <c r="D45" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>195</v>
+      </c>
+      <c r="B46" t="s">
+        <v>196</v>
+      </c>
+      <c r="C46" t="s">
+        <v>197</v>
+      </c>
+      <c r="D46" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>199</v>
+      </c>
       <c r="B47" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="48" spans="2:2">
+        <v>200</v>
+      </c>
+      <c r="C47" t="s">
+        <v>201</v>
+      </c>
+      <c r="D47" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>202</v>
+      </c>
       <c r="B48" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="49" spans="2:2">
+        <v>203</v>
+      </c>
+      <c r="C48" t="s">
+        <v>204</v>
+      </c>
+      <c r="D48" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>206</v>
+      </c>
       <c r="B49" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="50" spans="2:2">
+        <v>207</v>
+      </c>
+      <c r="C49" t="s">
+        <v>208</v>
+      </c>
+      <c r="D49" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>209</v>
+      </c>
       <c r="B50" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="51" spans="2:2">
+        <v>210</v>
+      </c>
+      <c r="C50" t="s">
+        <v>211</v>
+      </c>
+      <c r="D50" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>213</v>
+      </c>
       <c r="B51" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="52" spans="2:2">
+        <v>214</v>
+      </c>
+      <c r="C51" t="s">
+        <v>215</v>
+      </c>
+      <c r="D51" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>216</v>
+      </c>
       <c r="B52" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="53" spans="2:2">
+        <v>217</v>
+      </c>
+      <c r="C52" t="s">
+        <v>218</v>
+      </c>
+      <c r="D52" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>219</v>
+      </c>
       <c r="B53" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="54" spans="2:2">
+        <v>220</v>
+      </c>
+      <c r="C53" t="s">
+        <v>221</v>
+      </c>
+      <c r="D53" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>223</v>
+      </c>
       <c r="B54" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="55" spans="2:2">
+        <v>224</v>
+      </c>
+      <c r="C54" t="s">
+        <v>225</v>
+      </c>
+      <c r="D54" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>226</v>
+      </c>
       <c r="B55" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="56" spans="2:2">
+        <v>227</v>
+      </c>
+      <c r="C55" t="s">
+        <v>228</v>
+      </c>
+      <c r="D55" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>230</v>
+      </c>
       <c r="B56" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="57" spans="2:2">
+        <v>231</v>
+      </c>
+      <c r="C56" t="s">
+        <v>232</v>
+      </c>
+      <c r="D56" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>234</v>
+      </c>
       <c r="B57" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="58" spans="2:2">
+        <v>235</v>
+      </c>
+      <c r="C57" t="s">
+        <v>236</v>
+      </c>
+      <c r="D57" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>237</v>
+      </c>
       <c r="B58" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="59" spans="2:2">
-      <c r="B59" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="60" spans="2:2">
-      <c r="B60" t="s">
-        <v>60</v>
+        <v>238</v>
+      </c>
+      <c r="C58" t="s">
+        <v>239</v>
+      </c>
+      <c r="D58" t="s">
+        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -1150,7 +1966,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
@@ -1165,274 +1981,274 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>116</v>
+        <v>54</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>64</v>
+        <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>65</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>66</v>
+        <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>110</v>
+        <v>48</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>101</v>
+        <v>39</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>112</v>
+        <v>50</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>67</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>85</v>
+        <v>23</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>102</v>
+        <v>40</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>85</v>
+        <v>23</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>102</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>68</v>
+        <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>86</v>
+        <v>24</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>99</v>
+        <v>37</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>69</v>
+        <v>7</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>70</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
-        <v>87</v>
+        <v>25</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>103</v>
+        <v>41</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>87</v>
+        <v>25</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>103</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>71</v>
+        <v>9</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>88</v>
+        <v>26</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>104</v>
+        <v>42</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2"/>
       <c r="B7" s="2" t="s">
-        <v>89</v>
+        <v>27</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>105</v>
+        <v>43</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>89</v>
+        <v>27</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>105</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>71</v>
+        <v>9</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>109</v>
+        <v>47</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>106</v>
+        <v>44</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>75</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2"/>
       <c r="B9" s="2" t="s">
-        <v>90</v>
+        <v>28</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>107</v>
+        <v>45</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>90</v>
+        <v>28</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>107</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2" t="s">
-        <v>71</v>
+        <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>108</v>
+        <v>46</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>92</v>
+        <v>30</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>77</v>
+        <v>15</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>76</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
-        <v>91</v>
+        <v>29</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>93</v>
+        <v>31</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>91</v>
+        <v>29</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>93</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2" t="s">
-        <v>78</v>
+        <v>16</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>111</v>
+        <v>49</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>79</v>
+        <v>17</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>80</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2"/>
       <c r="B13" s="2" t="s">
-        <v>94</v>
+        <v>32</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>113</v>
+        <v>51</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>94</v>
+        <v>32</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>113</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2" t="s">
-        <v>81</v>
+        <v>19</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>86</v>
+        <v>24</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>99</v>
+        <v>37</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>69</v>
+        <v>7</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>70</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2"/>
       <c r="B15" s="2" t="s">
-        <v>95</v>
+        <v>33</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>114</v>
+        <v>52</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>95</v>
+        <v>33</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>114</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2" t="s">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>96</v>
+        <v>34</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>98</v>
+        <v>36</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>83</v>
+        <v>21</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="2:5">
       <c r="B17" s="2" t="s">
-        <v>97</v>
+        <v>35</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>115</v>
+        <v>53</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>97</v>
+        <v>35</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>115</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/doc/table.xlsx
+++ b/doc/table.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="12" windowWidth="19200" windowHeight="11868"/>
+    <workbookView xWindow="0" yWindow="12" windowWidth="19200" windowHeight="11868" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="不規則動詞" sheetId="1" r:id="rId1"/>
     <sheet name="代名詞表" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="kk" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="419">
   <si>
     <t>主格</t>
   </si>
@@ -771,13 +772,616 @@
   </si>
   <si>
     <t>written</t>
+  </si>
+  <si>
+    <t>字母／字母組合</t>
+  </si>
+  <si>
+    <t>音標</t>
+  </si>
+  <si>
+    <t>發音</t>
+  </si>
+  <si>
+    <t>單字範例</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>發短音的ㄧ</t>
+  </si>
+  <si>
+    <t>ee、ea、ie、ei、ey、e_e</t>
+  </si>
+  <si>
+    <t>feed、tea、relief、ceiling、they、these</t>
+  </si>
+  <si>
+    <t>a、e、ea</t>
+  </si>
+  <si>
+    <t>[ ɛ ]</t>
+  </si>
+  <si>
+    <t>嘴形向左右拉，發短音的ㄝ</t>
+  </si>
+  <si>
+    <t>many、letter、pleasure</t>
+  </si>
+  <si>
+    <t>ai、ei、ay、ey、ea、a_e</t>
+  </si>
+  <si>
+    <t>[ e ]</t>
+  </si>
+  <si>
+    <t>嘴形有 2 段變化，發長音的ㄟㄧ</t>
+  </si>
+  <si>
+    <t>plain、neighbor、play、prey、break、mate</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>[ æ ]</t>
+  </si>
+  <si>
+    <t>嘴形往下張大，發ㄝ</t>
+  </si>
+  <si>
+    <t>mad</t>
+  </si>
+  <si>
+    <t>a、o</t>
+  </si>
+  <si>
+    <t>[ ɑ ]</t>
+  </si>
+  <si>
+    <t>嘴形上下張大，發短音的ㄚ</t>
+  </si>
+  <si>
+    <t>wash、stop</t>
+  </si>
+  <si>
+    <t>al、au、aw、ou</t>
+  </si>
+  <si>
+    <t>[ ɔ ]</t>
+  </si>
+  <si>
+    <t>嘴形呈圓形，發短音的ㄛ</t>
+  </si>
+  <si>
+    <t>call、author、law、bought</t>
+  </si>
+  <si>
+    <t>oa、oe、ow、ough、o_e</t>
+  </si>
+  <si>
+    <t>[ o ]</t>
+  </si>
+  <si>
+    <t>嘴形有 2 段變化，發長音的ㄡㄨ</t>
+  </si>
+  <si>
+    <t>coat、poet、flow、 although、phone</t>
+  </si>
+  <si>
+    <t>oo、ui、ue、ou、ew、u_e</t>
+  </si>
+  <si>
+    <t>[ u ]</t>
+  </si>
+  <si>
+    <t>嘴形向前噘起，發長音的ㄨ</t>
+  </si>
+  <si>
+    <t>moon、suit、clue、through、chew、mute</t>
+  </si>
+  <si>
+    <t>er、ar、or、ure</t>
+  </si>
+  <si>
+    <t>[ ɚ ]</t>
+  </si>
+  <si>
+    <t>舌尖往後上方捲，發短音的ㄦ</t>
+  </si>
+  <si>
+    <t>better、familiar、color、nature</t>
+  </si>
+  <si>
+    <t>ir、er、ur、ear</t>
+  </si>
+  <si>
+    <t>[ ɝ ]</t>
+  </si>
+  <si>
+    <t>舌尖往後上方捲，發長音的ㄦ</t>
+  </si>
+  <si>
+    <t>ou、ow</t>
+  </si>
+  <si>
+    <t>[ aʊ ]</t>
+  </si>
+  <si>
+    <t>嘴形有 2 段變化，發ㄚㄨ</t>
+  </si>
+  <si>
+    <t>loud、flower</t>
+  </si>
+  <si>
+    <t>[ ɔɪ ]</t>
+  </si>
+  <si>
+    <t>嘴形有 2 段變化，發ㄛㄧ</t>
+  </si>
+  <si>
+    <t>joy、noise</t>
+  </si>
+  <si>
+    <t>b、bb</t>
+  </si>
+  <si>
+    <t>[ b ]</t>
+  </si>
+  <si>
+    <t>發ㄅ音</t>
+  </si>
+  <si>
+    <t>basic、bubble</t>
+  </si>
+  <si>
+    <t>d、dd</t>
+  </si>
+  <si>
+    <t>[ d ]</t>
+  </si>
+  <si>
+    <t>發短音的ㄉ</t>
+  </si>
+  <si>
+    <t>dinner、addition</t>
+  </si>
+  <si>
+    <t>g、gg</t>
+  </si>
+  <si>
+    <t>[ g ]</t>
+  </si>
+  <si>
+    <t>發短音的ㄍ</t>
+  </si>
+  <si>
+    <t>grammar、luggage</t>
+  </si>
+  <si>
+    <t>th</t>
+  </si>
+  <si>
+    <t>[ ð ]</t>
+  </si>
+  <si>
+    <t>上下齒輕咬舌尖，吹氣同時振動聲帶</t>
+  </si>
+  <si>
+    <t>this</t>
+  </si>
+  <si>
+    <t>j、ge、dge、gi、gy</t>
+  </si>
+  <si>
+    <t>[ dʒ ]</t>
+  </si>
+  <si>
+    <t>舌面往上頂住上顎，堵住氣流並振動聲帶，發音接近ㄓ或ㄐ</t>
+  </si>
+  <si>
+    <t>enjoy、change、judge、apologize、gym</t>
+  </si>
+  <si>
+    <t>l、ll</t>
+  </si>
+  <si>
+    <t>[ l ]</t>
+  </si>
+  <si>
+    <t>舌尖頂住上齒齦後發聲，發音接近ㄌ</t>
+  </si>
+  <si>
+    <t>r、rr</t>
+  </si>
+  <si>
+    <t>[ r ]</t>
+  </si>
+  <si>
+    <t>嘴唇微微噘起，舌尖上揚並振動聲帶，發音接近ㄖ、ㄦ</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>[ j ]</t>
+  </si>
+  <si>
+    <t>發短音的ㄧㄝ</t>
+  </si>
+  <si>
+    <t>young</t>
+  </si>
+  <si>
+    <t>w、wh、o</t>
+  </si>
+  <si>
+    <t>[ w ]</t>
+  </si>
+  <si>
+    <t>發短音的ㄨ</t>
+  </si>
+  <si>
+    <t>world、who、one</t>
+  </si>
+  <si>
+    <t>p、pp</t>
+  </si>
+  <si>
+    <t>[ p ]</t>
+  </si>
+  <si>
+    <t>發ㄆ音</t>
+  </si>
+  <si>
+    <t>keep、application</t>
+  </si>
+  <si>
+    <t>t、tt</t>
+  </si>
+  <si>
+    <t>[ t ]</t>
+  </si>
+  <si>
+    <t>發ㄊ音</t>
+  </si>
+  <si>
+    <t>table、letter</t>
+  </si>
+  <si>
+    <t>c、k、ck、ch</t>
+  </si>
+  <si>
+    <t>[ k ]</t>
+  </si>
+  <si>
+    <t>發ㄎ音</t>
+  </si>
+  <si>
+    <t>accept、king、rock、schedule</t>
+  </si>
+  <si>
+    <t>h、wh</t>
+  </si>
+  <si>
+    <t>[ h ]</t>
+  </si>
+  <si>
+    <t>發ㄏ音</t>
+  </si>
+  <si>
+    <t>heaven、when</t>
+  </si>
+  <si>
+    <t>s、c、sc</t>
+  </si>
+  <si>
+    <t>[ s ]</t>
+  </si>
+  <si>
+    <t>發ㄙ音</t>
+  </si>
+  <si>
+    <t>see、city、school</t>
+  </si>
+  <si>
+    <t>c、s、sh、tion</t>
+  </si>
+  <si>
+    <t>[ ʃ ]</t>
+  </si>
+  <si>
+    <t>舌面輕觸上顎吹氣，發音接近ㄕ、ㄒ</t>
+  </si>
+  <si>
+    <t>special、sure、fish、action</t>
+  </si>
+  <si>
+    <t>單母音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雙母音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有聲子音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>無聲子音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>start</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kk.mp3</t>
+  </si>
+  <si>
+    <t>kk.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>full、book、could</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u、oo、ou</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[ ʊ ]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u、o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[ ʌ ]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘴形放鬆張開，發短音ㄜ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bug、color</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a、o、e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[ ə ]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弱化音，發短音的ㄜ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ago、together、calendar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bird、her、turn、learn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘴形放鬆張開，先做ㄜ口型，再發短音的ㄨ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>發長音的ㄧ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[ ɪ ]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[ i ]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘴形有 2 段變化，先做ㄚ口型，再發ㄞㄧ音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>child、tie、light、fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i、ie、igh、i_e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[ aɪ ]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oy、oi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v、f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下唇碰到上齒，吹氣同時振動聲帶，發音類似 / f /</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vegetable、of</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[ v ]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>z、s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[ z ]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雙脣微啟，上下齒閉合，吹氣同時振動聲帶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zoo、pause</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sion、sure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[ ʒ ]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>舌面往上輕觸上顎，吹氣同時振動聲帶，與 / ʃ / 發音口型相同</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>television、pleasure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lend、fall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>romantic、mirror</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m、mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[ m ]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雙唇緊閉，再從鼻腔發聲，發ㄇ音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>moon、community</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n、nn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[ n ]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>舌尖頂住上齒齦，再從鼻腔發聲，發音接近ㄋ、ㄣ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clean、tennis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ng、nk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[ ŋ ]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>舌尖平放，再從鼻腔發聲，發ㄥ音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>long、thank</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f、fe、gh、ph</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[ f ]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下唇碰到上齒，透過唇齒縫隙吹氣，接近無聲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>family、life、cough、phase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>th</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[ θ ]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上下齒輕咬舌尖，不振動聲帶吹氣，發音接近ㄙ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>health</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ch、tch、ture</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[ tʃ ]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>舌面頂住上顎，堵住氣流後發聲，與 / ʃ / 口型相同，發音接近ㄔ、ㄑ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lunch、catch、adventure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一、母音音標 (17個)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二、子音音標 (24個)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -795,6 +1399,32 @@
     </font>
     <font>
       <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="新細明體"/>
@@ -825,7 +1455,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -833,6 +1463,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1131,7 +1773,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
@@ -2260,14 +2902,1538 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G60"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="28" customWidth="1"/>
+    <col min="6" max="6" width="72.6640625" customWidth="1"/>
+    <col min="7" max="7" width="40.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="19.8">
+      <c r="A1" s="3" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="17.399999999999999">
+      <c r="A3" s="4" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2">
+        <v>1</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2">
+        <v>1</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0</v>
+      </c>
+      <c r="E13" s="2">
+        <v>1</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0</v>
+      </c>
+      <c r="E15" s="2">
+        <v>1</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0</v>
+      </c>
+      <c r="E16" s="2">
+        <v>1</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0</v>
+      </c>
+      <c r="E17" s="2">
+        <v>1</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0</v>
+      </c>
+      <c r="E18" s="2">
+        <v>1</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0</v>
+      </c>
+      <c r="E19" s="2">
+        <v>1</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="1:7" ht="17.399999999999999">
+      <c r="A21" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="D24" s="6">
+        <v>0</v>
+      </c>
+      <c r="E24" s="6">
+        <v>1</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="D25" s="2">
+        <v>0</v>
+      </c>
+      <c r="E25" s="2">
+        <v>1</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="D26" s="2">
+        <v>0</v>
+      </c>
+      <c r="E26" s="2">
+        <v>1</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="1:7" ht="19.8">
+      <c r="A28" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="1:7" ht="17.399999999999999">
+      <c r="A30" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="D33" s="2">
+        <v>0</v>
+      </c>
+      <c r="E33" s="2">
+        <v>1</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="D34" s="2">
+        <v>0</v>
+      </c>
+      <c r="E34" s="2">
+        <v>1</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="D35" s="2">
+        <v>0</v>
+      </c>
+      <c r="E35" s="2">
+        <v>1</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="D36" s="2">
+        <v>0</v>
+      </c>
+      <c r="E36" s="2">
+        <v>1</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="D37" s="2">
+        <v>0</v>
+      </c>
+      <c r="E37" s="2">
+        <v>1</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="D38" s="2">
+        <v>0</v>
+      </c>
+      <c r="E38" s="2">
+        <v>1</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="D39" s="2">
+        <v>0</v>
+      </c>
+      <c r="E39" s="2">
+        <v>1</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="D40" s="2">
+        <v>0</v>
+      </c>
+      <c r="E40" s="2">
+        <v>1</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="D41" s="2">
+        <v>0</v>
+      </c>
+      <c r="E41" s="2">
+        <v>1</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="D42" s="2">
+        <v>0</v>
+      </c>
+      <c r="E42" s="2">
+        <v>1</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="D43" s="2">
+        <v>0</v>
+      </c>
+      <c r="E43" s="2">
+        <v>1</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="D44" s="2">
+        <v>0</v>
+      </c>
+      <c r="E44" s="2">
+        <v>1</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="D45" s="2">
+        <v>0</v>
+      </c>
+      <c r="E45" s="2">
+        <v>1</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="D46" s="2">
+        <v>0</v>
+      </c>
+      <c r="E46" s="2">
+        <v>1</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="D47" s="2">
+        <v>0</v>
+      </c>
+      <c r="E47" s="2">
+        <v>1</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+    </row>
+    <row r="49" spans="1:7" ht="17.399999999999999">
+      <c r="A49" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="D52" s="2">
+        <v>0</v>
+      </c>
+      <c r="E52" s="2">
+        <v>1</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="D53" s="2">
+        <v>0</v>
+      </c>
+      <c r="E53" s="2">
+        <v>1</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="D54" s="2">
+        <v>0</v>
+      </c>
+      <c r="E54" s="2">
+        <v>1</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="D55" s="2">
+        <v>0</v>
+      </c>
+      <c r="E55" s="2">
+        <v>1</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="D56" s="2">
+        <v>0</v>
+      </c>
+      <c r="E56" s="2">
+        <v>1</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="D57" s="2">
+        <v>0</v>
+      </c>
+      <c r="E57" s="2">
+        <v>1</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="D58" s="2">
+        <v>0</v>
+      </c>
+      <c r="E58" s="2">
+        <v>1</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="D59" s="2">
+        <v>0</v>
+      </c>
+      <c r="E59" s="2">
+        <v>1</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="D60" s="2">
+        <v>0</v>
+      </c>
+      <c r="E60" s="2">
+        <v>1</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>416</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C88"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.2"/>
+  <cols>
+    <col min="1" max="1" width="29.88671875" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="123.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="19.8">
+      <c r="A1" s="3"/>
+    </row>
+    <row r="3" spans="1:3" ht="17.399999999999999">
+      <c r="A3" s="4"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+    </row>
+    <row r="27" spans="1:3" ht="17.399999999999999">
+      <c r="A27" s="4"/>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+    </row>
+    <row r="36" spans="1:3" ht="19.8">
+      <c r="A36" s="3"/>
+    </row>
+    <row r="38" spans="1:3" ht="17.399999999999999">
+      <c r="A38" s="4"/>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="5"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="2"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="2"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="2"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="2"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="2"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="2"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="2"/>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="2"/>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="2"/>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="2"/>
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="2"/>
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="2"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="2"/>
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="2"/>
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="2"/>
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="2"/>
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="2"/>
+      <c r="B66" s="2"/>
+      <c r="C66" s="2"/>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="2"/>
+      <c r="B67" s="2"/>
+      <c r="C67" s="2"/>
+    </row>
+    <row r="69" spans="1:3" ht="17.399999999999999">
+      <c r="A69" s="4"/>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="5"/>
+      <c r="B71" s="5"/>
+      <c r="C71" s="5"/>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="2"/>
+      <c r="B72" s="2"/>
+      <c r="C72" s="2"/>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="2"/>
+      <c r="B73" s="2"/>
+      <c r="C73" s="2"/>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="2"/>
+      <c r="B74" s="2"/>
+      <c r="C74" s="2"/>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="2"/>
+      <c r="B75" s="2"/>
+      <c r="C75" s="2"/>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="2"/>
+      <c r="B76" s="2"/>
+      <c r="C76" s="2"/>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="2"/>
+      <c r="B77" s="2"/>
+      <c r="C77" s="2"/>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="2"/>
+      <c r="B78" s="2"/>
+      <c r="C78" s="2"/>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="2"/>
+      <c r="B79" s="2"/>
+      <c r="C79" s="2"/>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="2"/>
+      <c r="B80" s="2"/>
+      <c r="C80" s="2"/>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="2"/>
+      <c r="B81" s="2"/>
+      <c r="C81" s="2"/>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="2"/>
+      <c r="B82" s="2"/>
+      <c r="C82" s="2"/>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="2"/>
+      <c r="B83" s="2"/>
+      <c r="C83" s="2"/>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="2"/>
+      <c r="B84" s="2"/>
+      <c r="C84" s="2"/>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="2"/>
+      <c r="B85" s="2"/>
+      <c r="C85" s="2"/>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="2"/>
+      <c r="B86" s="2"/>
+      <c r="C86" s="2"/>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="2"/>
+      <c r="B87" s="2"/>
+      <c r="C87" s="2"/>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="2"/>
+      <c r="B88" s="2"/>
+      <c r="C88" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/doc/table.xlsx
+++ b/doc/table.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="458">
   <si>
     <t>主格</t>
   </si>
@@ -918,238 +918,599 @@
     <t>[ ɔɪ ]</t>
   </si>
   <si>
+    <t>joy、noise</t>
+  </si>
+  <si>
+    <t>b、bb</t>
+  </si>
+  <si>
+    <t>[ b ]</t>
+  </si>
+  <si>
+    <t>發ㄅ音</t>
+  </si>
+  <si>
+    <t>basic、bubble</t>
+  </si>
+  <si>
+    <t>d、dd</t>
+  </si>
+  <si>
+    <t>[ d ]</t>
+  </si>
+  <si>
+    <t>發短音的ㄉ</t>
+  </si>
+  <si>
+    <t>dinner、addition</t>
+  </si>
+  <si>
+    <t>g、gg</t>
+  </si>
+  <si>
+    <t>[ g ]</t>
+  </si>
+  <si>
+    <t>發短音的ㄍ</t>
+  </si>
+  <si>
+    <t>grammar、luggage</t>
+  </si>
+  <si>
+    <t>th</t>
+  </si>
+  <si>
+    <t>[ ð ]</t>
+  </si>
+  <si>
+    <t>上下齒輕咬舌尖，吹氣同時振動聲帶</t>
+  </si>
+  <si>
+    <t>this</t>
+  </si>
+  <si>
+    <t>j、ge、dge、gi、gy</t>
+  </si>
+  <si>
+    <t>[ dʒ ]</t>
+  </si>
+  <si>
+    <t>舌面往上頂住上顎，堵住氣流並振動聲帶，發音接近ㄓ或ㄐ</t>
+  </si>
+  <si>
+    <t>enjoy、change、judge、apologize、gym</t>
+  </si>
+  <si>
+    <t>l、ll</t>
+  </si>
+  <si>
+    <t>[ l ]</t>
+  </si>
+  <si>
+    <t>r、rr</t>
+  </si>
+  <si>
+    <t>[ r ]</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>[ j ]</t>
+  </si>
+  <si>
+    <t>發短音的ㄧㄝ</t>
+  </si>
+  <si>
+    <t>young</t>
+  </si>
+  <si>
+    <t>w、wh、o</t>
+  </si>
+  <si>
+    <t>[ w ]</t>
+  </si>
+  <si>
+    <t>發短音的ㄨ</t>
+  </si>
+  <si>
+    <t>world、who、one</t>
+  </si>
+  <si>
+    <t>p、pp</t>
+  </si>
+  <si>
+    <t>[ p ]</t>
+  </si>
+  <si>
+    <t>發ㄆ音</t>
+  </si>
+  <si>
+    <t>keep、application</t>
+  </si>
+  <si>
+    <t>t、tt</t>
+  </si>
+  <si>
+    <t>[ t ]</t>
+  </si>
+  <si>
+    <t>table、letter</t>
+  </si>
+  <si>
+    <t>c、k、ck、ch</t>
+  </si>
+  <si>
+    <t>[ k ]</t>
+  </si>
+  <si>
+    <t>發ㄎ音</t>
+  </si>
+  <si>
+    <t>accept、king、rock、schedule</t>
+  </si>
+  <si>
+    <t>h、wh</t>
+  </si>
+  <si>
+    <t>[ h ]</t>
+  </si>
+  <si>
+    <t>發ㄏ音</t>
+  </si>
+  <si>
+    <t>heaven、when</t>
+  </si>
+  <si>
+    <t>s、c、sc</t>
+  </si>
+  <si>
+    <t>[ s ]</t>
+  </si>
+  <si>
+    <t>發ㄙ音</t>
+  </si>
+  <si>
+    <t>see、city、school</t>
+  </si>
+  <si>
+    <t>c、s、sh、tion</t>
+  </si>
+  <si>
+    <t>[ ʃ ]</t>
+  </si>
+  <si>
+    <t>舌面輕觸上顎吹氣，發音接近ㄕ、ㄒ</t>
+  </si>
+  <si>
+    <t>special、sure、fish、action</t>
+  </si>
+  <si>
+    <t>mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>start</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>full、book、could</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u、oo、ou</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[ ʊ ]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u、o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[ ʌ ]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bug、color</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a、o、e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[ ə ]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弱化音，發短音的ㄜ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ago、together、calendar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bird、her、turn、learn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘴形放鬆張開，先做ㄜ口型，再發短音的ㄨ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>發長音的ㄧ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[ ɪ ]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[ i ]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘴形有 2 段變化，先做ㄚ口型，再發ㄞㄧ音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>child、tie、light、fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i、ie、igh、i_e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[ aɪ ]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oy、oi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v、f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下唇碰到上齒，吹氣同時振動聲帶，發音類似 / f /</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vegetable、of</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[ v ]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>z、s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[ z ]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雙脣微啟，上下齒閉合，吹氣同時振動聲帶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zoo、pause</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sion、sure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[ ʒ ]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>舌面往上輕觸上顎，吹氣同時振動聲帶，與 / ʃ / 發音口型相同</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>television、pleasure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lend、fall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>romantic、mirror</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m、mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[ m ]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>moon、community</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n、nn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[ n ]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clean、tennis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ng、nk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[ ŋ ]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>舌尖平放，再從鼻腔發聲，發ㄥ音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>long、thank</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f、fe、gh、ph</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[ f ]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下唇碰到上齒，透過唇齒縫隙吹氣，接近無聲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>family、life、cough、phase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>th</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[ θ ]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上下齒輕咬舌尖，不振動聲帶吹氣，發音接近ㄙ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>health</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ch、tch、ture</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[ tʃ ]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>舌面頂住上顎，堵住氣流後發聲，與 / ʃ / 口型相同，發音接近ㄔ、ㄑ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lunch、catch、adventure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;1&gt;一、母音音標 (17個)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;2&gt;單母音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;2&gt;雙母音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;1&gt;二、子音音標 (24個)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;2&gt;有聲子音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;2&gt;無聲子音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曲目 03.mp3</t>
+  </si>
+  <si>
+    <t>曲目 04.mp3</t>
+  </si>
+  <si>
+    <t>曲目 05.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曲目 06.mp3</t>
+  </si>
+  <si>
+    <t>曲目 07.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曲目 08.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曲目 20.mp3</t>
+  </si>
+  <si>
+    <t>曲目 21.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曲目 26.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曲目 28.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曲目 32.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曲目 11.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曲目 12.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曲目 13.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曲目 14.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曲目 15.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曲目 18.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曲目 19.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曲目 23.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曲目 24.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曲目 25.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曲目 27.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曲目 30.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曲目 31.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>發ㄊ音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曲目 39.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曲目 41.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曲目 44.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曲目 46.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曲目 49.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曲目 52.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曲目 54.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曲目 56.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曲目 59.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曲目 61.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曲目 64.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曲目 66.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曲目 68.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曲目 70.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曲目 73.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曲目 75.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曲目 77.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>嘴形有 2 段變化，發ㄛㄧ</t>
-  </si>
-  <si>
-    <t>joy、noise</t>
-  </si>
-  <si>
-    <t>b、bb</t>
-  </si>
-  <si>
-    <t>[ b ]</t>
-  </si>
-  <si>
-    <t>發ㄅ音</t>
-  </si>
-  <si>
-    <t>basic、bubble</t>
-  </si>
-  <si>
-    <t>d、dd</t>
-  </si>
-  <si>
-    <t>[ d ]</t>
-  </si>
-  <si>
-    <t>發短音的ㄉ</t>
-  </si>
-  <si>
-    <t>dinner、addition</t>
-  </si>
-  <si>
-    <t>g、gg</t>
-  </si>
-  <si>
-    <t>[ g ]</t>
-  </si>
-  <si>
-    <t>發短音的ㄍ</t>
-  </si>
-  <si>
-    <t>grammar、luggage</t>
-  </si>
-  <si>
-    <t>th</t>
-  </si>
-  <si>
-    <t>[ ð ]</t>
-  </si>
-  <si>
-    <t>上下齒輕咬舌尖，吹氣同時振動聲帶</t>
-  </si>
-  <si>
-    <t>this</t>
-  </si>
-  <si>
-    <t>j、ge、dge、gi、gy</t>
-  </si>
-  <si>
-    <t>[ dʒ ]</t>
-  </si>
-  <si>
-    <t>舌面往上頂住上顎，堵住氣流並振動聲帶，發音接近ㄓ或ㄐ</t>
-  </si>
-  <si>
-    <t>enjoy、change、judge、apologize、gym</t>
-  </si>
-  <si>
-    <t>l、ll</t>
-  </si>
-  <si>
-    <t>[ l ]</t>
-  </si>
-  <si>
-    <t>舌尖頂住上齒齦後發聲，發音接近ㄌ</t>
-  </si>
-  <si>
-    <t>r、rr</t>
-  </si>
-  <si>
-    <t>[ r ]</t>
-  </si>
-  <si>
-    <t>嘴唇微微噘起，舌尖上揚並振動聲帶，發音接近ㄖ、ㄦ</t>
-  </si>
-  <si>
-    <t>y</t>
-  </si>
-  <si>
-    <t>[ j ]</t>
-  </si>
-  <si>
-    <t>發短音的ㄧㄝ</t>
-  </si>
-  <si>
-    <t>young</t>
-  </si>
-  <si>
-    <t>w、wh、o</t>
-  </si>
-  <si>
-    <t>[ w ]</t>
-  </si>
-  <si>
-    <t>發短音的ㄨ</t>
-  </si>
-  <si>
-    <t>world、who、one</t>
-  </si>
-  <si>
-    <t>p、pp</t>
-  </si>
-  <si>
-    <t>[ p ]</t>
-  </si>
-  <si>
-    <t>發ㄆ音</t>
-  </si>
-  <si>
-    <t>keep、application</t>
-  </si>
-  <si>
-    <t>t、tt</t>
-  </si>
-  <si>
-    <t>[ t ]</t>
-  </si>
-  <si>
-    <t>發ㄊ音</t>
-  </si>
-  <si>
-    <t>table、letter</t>
-  </si>
-  <si>
-    <t>c、k、ck、ch</t>
-  </si>
-  <si>
-    <t>[ k ]</t>
-  </si>
-  <si>
-    <t>發ㄎ音</t>
-  </si>
-  <si>
-    <t>accept、king、rock、schedule</t>
-  </si>
-  <si>
-    <t>h、wh</t>
-  </si>
-  <si>
-    <t>[ h ]</t>
-  </si>
-  <si>
-    <t>發ㄏ音</t>
-  </si>
-  <si>
-    <t>heaven、when</t>
-  </si>
-  <si>
-    <t>s、c、sc</t>
-  </si>
-  <si>
-    <t>[ s ]</t>
-  </si>
-  <si>
-    <t>發ㄙ音</t>
-  </si>
-  <si>
-    <t>see、city、school</t>
-  </si>
-  <si>
-    <t>c、s、sh、tion</t>
-  </si>
-  <si>
-    <t>[ ʃ ]</t>
-  </si>
-  <si>
-    <t>舌面輕觸上顎吹氣，發音接近ㄕ、ㄒ</t>
-  </si>
-  <si>
-    <t>special、sure、fish、action</t>
-  </si>
-  <si>
-    <t>單母音</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>雙母音</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有聲子音</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>無聲子音</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>start</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kk.mp3</t>
-  </si>
-  <si>
-    <t>kk.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>full、book、could</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>u、oo、ou</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[ ʊ ]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>u、o</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[ ʌ ]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1157,223 +1518,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>bug、color</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a、o、e</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[ ə ]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>弱化音，發短音的ㄜ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ago、together、calendar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bird、her、turn、learn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>嘴形放鬆張開，先做ㄜ口型，再發短音的ㄨ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>發長音的ㄧ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[ ɪ ]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[ i ]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>嘴形有 2 段變化，先做ㄚ口型，再發ㄞㄧ音</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>child、tie、light、fire</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>i、ie、igh、i_e</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[ aɪ ]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>oy、oi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>v、f</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下唇碰到上齒，吹氣同時振動聲帶，發音類似 / f /</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vegetable、of</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[ v ]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>z、s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[ z ]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>雙脣微啟，上下齒閉合，吹氣同時振動聲帶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zoo、pause</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sion、sure</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[ ʒ ]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>舌面往上輕觸上顎，吹氣同時振動聲帶，與 / ʃ / 發音口型相同</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>television、pleasure</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lend、fall</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>romantic、mirror</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>m、mm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[ m ]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>雙唇緊閉，再從鼻腔發聲，發ㄇ音</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>moon、community</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>n、nn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[ n ]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>舌尖頂住上齒齦，再從鼻腔發聲，發音接近ㄋ、ㄣ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>clean、tennis</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ng、nk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[ ŋ ]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>舌尖平放，再從鼻腔發聲，發ㄥ音</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>long、thank</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>f、fe、gh、ph</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[ f ]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下唇碰到上齒，透過唇齒縫隙吹氣，接近無聲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>family、life、cough、phase</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>th</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[ θ ]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上下齒輕咬舌尖，不振動聲帶吹氣，發音接近ㄙ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>health</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ch、tch、ture</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[ tʃ ]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>舌面頂住上顎，堵住氣流後發聲，與 / ʃ / 口型相同，發音接近ㄔ、ㄑ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lunch、catch、adventure</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一、母音音標 (17個)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二、子音音標 (24個)</t>
+    <t>舌尖頂住上齒齦後發聲，發音接近ㄌ，母音前發音接近ㄌ，母音後發音接近ㄛ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘴唇微微噘起，舌尖上揚並振動聲帶，發音接近ㄖ、ㄦ，母音前發音接近ㄖㄜ，母音後發音接近ㄦ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雙唇緊閉，再從鼻腔發聲，發ㄇ音，母音前發音接近ㄇ，母音後發音接近ㄣ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>舌尖頂住上齒齦，再從鼻腔發聲，發音接近ㄋ、ㄣ，母音前發音接近ㄋ，母音後發音接近ㄣ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2904,25 +3061,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
     <col min="1" max="1" width="28" customWidth="1"/>
-    <col min="6" max="6" width="72.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.77734375" customWidth="1"/>
+    <col min="6" max="6" width="103.21875" customWidth="1"/>
     <col min="7" max="7" width="40.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="19.8">
       <c r="A1" s="3" t="s">
-        <v>417</v>
+        <v>404</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="17.399999999999999">
       <c r="A3" s="4" t="s">
-        <v>349</v>
+        <v>405</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2933,13 +3091,13 @@
         <v>242</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>243</v>
@@ -2953,16 +3111,16 @@
         <v>245</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>357</v>
+        <v>436</v>
       </c>
       <c r="D6" s="2">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="E6" s="2">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>246</v>
@@ -2976,19 +3134,19 @@
         <v>247</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>357</v>
+        <v>435</v>
       </c>
       <c r="D7" s="2">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E7" s="2">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>248</v>
@@ -3002,13 +3160,13 @@
         <v>250</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>356</v>
+        <v>438</v>
       </c>
       <c r="D8" s="2">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E8" s="2">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>251</v>
@@ -3025,13 +3183,13 @@
         <v>254</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>356</v>
+        <v>437</v>
       </c>
       <c r="D9" s="2">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E9" s="2">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>255</v>
@@ -3048,13 +3206,13 @@
         <v>258</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>356</v>
+        <v>439</v>
       </c>
       <c r="D10" s="2">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="E10" s="2">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>259</v>
@@ -3071,13 +3229,13 @@
         <v>262</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>356</v>
+        <v>440</v>
       </c>
       <c r="D11" s="2">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E11" s="2">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>263</v>
@@ -3094,13 +3252,13 @@
         <v>266</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>356</v>
+        <v>441</v>
       </c>
       <c r="D12" s="2">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E12" s="2">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>267</v>
@@ -3117,13 +3275,13 @@
         <v>270</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>356</v>
+        <v>442</v>
       </c>
       <c r="D13" s="2">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="E13" s="2">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>271</v>
@@ -3134,25 +3292,25 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="D14" s="2">
+        <v>14.5</v>
+      </c>
+      <c r="E14" s="2">
+        <v>15.5</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="D14" s="2">
-        <v>0</v>
-      </c>
-      <c r="E14" s="2">
-        <v>1</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>370</v>
-      </c>
       <c r="G14" s="2" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -3163,13 +3321,13 @@
         <v>274</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>357</v>
+        <v>444</v>
       </c>
       <c r="D15" s="2">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E15" s="2">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>275</v>
@@ -3180,48 +3338,48 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="2" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>356</v>
+        <v>448</v>
       </c>
       <c r="D16" s="2">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E16" s="2">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>363</v>
+        <v>453</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="2" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="C17" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="D17" s="2">
+        <v>15</v>
+      </c>
+      <c r="E17" s="2">
+        <v>16</v>
+      </c>
+      <c r="F17" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="D17" s="2">
-        <v>0</v>
-      </c>
-      <c r="E17" s="2">
-        <v>1</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>367</v>
-      </c>
       <c r="G17" s="2" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -3232,13 +3390,13 @@
         <v>278</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>356</v>
+        <v>446</v>
       </c>
       <c r="D18" s="2">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E18" s="2">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>279</v>
@@ -3255,19 +3413,19 @@
         <v>282</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>356</v>
+        <v>447</v>
       </c>
       <c r="D19" s="2">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E19" s="2">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>283</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -3277,7 +3435,7 @@
     </row>
     <row r="21" spans="1:7" ht="17.399999999999999">
       <c r="A21" s="4" t="s">
-        <v>350</v>
+        <v>406</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -3296,13 +3454,13 @@
         <v>242</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="F23" s="5" t="s">
         <v>243</v>
@@ -3313,25 +3471,25 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="6" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>377</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>356</v>
-      </c>
-      <c r="D24" s="6">
-        <v>0</v>
-      </c>
-      <c r="E24" s="6">
-        <v>1</v>
+        <v>366</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="D24" s="2">
+        <v>18.5</v>
+      </c>
+      <c r="E24" s="2">
+        <v>19.5</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -3342,13 +3500,13 @@
         <v>285</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>356</v>
+        <v>450</v>
       </c>
       <c r="D25" s="2">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E25" s="2">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>286</v>
@@ -3359,25 +3517,25 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="2" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>288</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>356</v>
+        <v>451</v>
       </c>
       <c r="D26" s="2">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="E26" s="2">
-        <v>1</v>
+        <v>19.5</v>
       </c>
       <c r="F26" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="G26" s="2" t="s">
         <v>289</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -3387,7 +3545,7 @@
     </row>
     <row r="28" spans="1:7" ht="19.8">
       <c r="A28" s="3" t="s">
-        <v>418</v>
+        <v>407</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -3400,7 +3558,7 @@
     </row>
     <row r="30" spans="1:7" ht="17.399999999999999">
       <c r="A30" s="4" t="s">
-        <v>351</v>
+        <v>408</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -3419,13 +3577,13 @@
         <v>242</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="F32" s="5" t="s">
         <v>243</v>
@@ -3436,347 +3594,347 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="C33" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="D33" s="2">
+        <v>17</v>
+      </c>
+      <c r="E33" s="2">
+        <v>18</v>
+      </c>
+      <c r="F33" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="D33" s="2">
-        <v>0</v>
-      </c>
-      <c r="E33" s="2">
-        <v>1</v>
-      </c>
-      <c r="F33" s="2" t="s">
+      <c r="G33" s="2" t="s">
         <v>293</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="C34" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="D34" s="2">
+        <v>17</v>
+      </c>
+      <c r="E34" s="2">
+        <v>18</v>
+      </c>
+      <c r="F34" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="D34" s="2">
-        <v>0</v>
-      </c>
-      <c r="E34" s="2">
-        <v>1</v>
-      </c>
-      <c r="F34" s="2" t="s">
+      <c r="G34" s="2" t="s">
         <v>297</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="C35" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="D35" s="2">
+        <v>17</v>
+      </c>
+      <c r="E35" s="2">
+        <v>18</v>
+      </c>
+      <c r="F35" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="D35" s="2">
-        <v>0</v>
-      </c>
-      <c r="E35" s="2">
-        <v>1</v>
-      </c>
-      <c r="F35" s="2" t="s">
+      <c r="G35" s="2" t="s">
         <v>301</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="2" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>356</v>
+        <v>416</v>
       </c>
       <c r="D36" s="2">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="E36" s="2">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="2" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>356</v>
+        <v>417</v>
       </c>
       <c r="D37" s="2">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="E37" s="2">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>386</v>
+        <v>375</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="C38" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="D38" s="2">
+        <v>16</v>
+      </c>
+      <c r="E38" s="2">
+        <v>18</v>
+      </c>
+      <c r="F38" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="D38" s="2">
-        <v>0</v>
-      </c>
-      <c r="E38" s="2">
-        <v>1</v>
-      </c>
-      <c r="F38" s="2" t="s">
+      <c r="G38" s="2" t="s">
         <v>305</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="2" t="s">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>388</v>
+        <v>377</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>356</v>
+        <v>419</v>
       </c>
       <c r="D39" s="2">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E39" s="2">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="C40" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="D40" s="2">
+        <v>16</v>
+      </c>
+      <c r="E40" s="2">
+        <v>17</v>
+      </c>
+      <c r="F40" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="D40" s="2">
-        <v>0</v>
-      </c>
-      <c r="E40" s="2">
-        <v>1</v>
-      </c>
-      <c r="F40" s="2" t="s">
+      <c r="G40" s="2" t="s">
         <v>309</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>312</v>
-      </c>
       <c r="C41" s="2" t="s">
-        <v>356</v>
+        <v>421</v>
       </c>
       <c r="D41" s="2">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="E41" s="2">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>313</v>
+        <v>454</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>356</v>
+        <v>425</v>
       </c>
       <c r="D42" s="2">
-        <v>0</v>
+        <v>22.5</v>
       </c>
       <c r="E42" s="2">
-        <v>1</v>
+        <v>23.5</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>316</v>
+        <v>455</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="2" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>356</v>
+        <v>422</v>
       </c>
       <c r="D43" s="2">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="E43" s="2">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>395</v>
+        <v>456</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="2" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>356</v>
+        <v>423</v>
       </c>
       <c r="D44" s="2">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="E44" s="2">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>399</v>
+        <v>457</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="2" t="s">
-        <v>401</v>
+        <v>388</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>402</v>
+        <v>389</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>356</v>
+        <v>432</v>
       </c>
       <c r="D45" s="2">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E45" s="2">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>403</v>
+        <v>390</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>404</v>
+        <v>391</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="D46" s="2">
+        <v>16</v>
+      </c>
+      <c r="E46" s="2">
+        <v>17</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="G46" s="2" t="s">
         <v>317</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="D46" s="2">
-        <v>0</v>
-      </c>
-      <c r="E46" s="2">
-        <v>1</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="D47" s="2">
+        <v>16</v>
+      </c>
+      <c r="E47" s="2">
+        <v>17</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="G47" s="2" t="s">
         <v>321</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="D47" s="2">
-        <v>0</v>
-      </c>
-      <c r="E47" s="2">
-        <v>1</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -3786,7 +3944,7 @@
     </row>
     <row r="49" spans="1:7" ht="17.399999999999999">
       <c r="A49" s="4" t="s">
-        <v>352</v>
+        <v>409</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
@@ -3805,13 +3963,13 @@
         <v>242</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="F51" s="5" t="s">
         <v>243</v>
@@ -3822,209 +3980,209 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="D52" s="2">
+        <v>17</v>
+      </c>
+      <c r="E52" s="2">
+        <v>18</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="G52" s="2" t="s">
         <v>325</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="D52" s="2">
-        <v>0</v>
-      </c>
-      <c r="E52" s="2">
-        <v>1</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="G52" s="2" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="2" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>356</v>
+        <v>427</v>
       </c>
       <c r="D53" s="2">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="E53" s="2">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>331</v>
+        <v>434</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="2" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>356</v>
+        <v>415</v>
       </c>
       <c r="D54" s="2">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="E54" s="2">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>356</v>
+        <v>414</v>
       </c>
       <c r="D55" s="2">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="E55" s="2">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="2" t="s">
-        <v>405</v>
+        <v>392</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>406</v>
+        <v>393</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>356</v>
+        <v>412</v>
       </c>
       <c r="D56" s="2">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="E56" s="2">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>408</v>
+        <v>395</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="2" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>356</v>
+        <v>426</v>
       </c>
       <c r="D57" s="2">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="E57" s="2">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="2" t="s">
-        <v>409</v>
+        <v>396</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>356</v>
+        <v>430</v>
       </c>
       <c r="D58" s="2">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E58" s="2">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>412</v>
+        <v>399</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="2" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>356</v>
+        <v>431</v>
       </c>
       <c r="D59" s="2">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="E59" s="2">
-        <v>1</v>
+        <v>17.5</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="2" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>356</v>
+        <v>433</v>
       </c>
       <c r="D60" s="2">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E60" s="2">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>415</v>
+        <v>402</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>416</v>
+        <v>403</v>
       </c>
     </row>
   </sheetData>

--- a/doc/table.xlsx
+++ b/doc/table.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="459">
   <si>
     <t>主格</t>
   </si>
@@ -1531,6 +1531,10 @@
   </si>
   <si>
     <t>舌尖頂住上齒齦，再從鼻腔發聲，發音接近ㄋ、ㄣ，母音前發音接近ㄋ，母音後發音接近ㄣ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>音標</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3061,8 +3065,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -3088,7 +3092,7 @@
         <v>241</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>242</v>
+        <v>458</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>345</v>

--- a/doc/table.xlsx
+++ b/doc/table.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="461">
   <si>
     <t>主格</t>
   </si>
@@ -795,9 +795,6 @@
     <t>ee、ea、ie、ei、ey、e_e</t>
   </si>
   <si>
-    <t>feed、tea、relief、ceiling、they、these</t>
-  </si>
-  <si>
     <t>a、e、ea</t>
   </si>
   <si>
@@ -807,9 +804,6 @@
     <t>嘴形向左右拉，發短音的ㄝ</t>
   </si>
   <si>
-    <t>many、letter、pleasure</t>
-  </si>
-  <si>
     <t>ai、ei、ay、ey、ea、a_e</t>
   </si>
   <si>
@@ -819,9 +813,6 @@
     <t>嘴形有 2 段變化，發長音的ㄟㄧ</t>
   </si>
   <si>
-    <t>plain、neighbor、play、prey、break、mate</t>
-  </si>
-  <si>
     <t>a</t>
   </si>
   <si>
@@ -831,9 +822,6 @@
     <t>嘴形往下張大，發ㄝ</t>
   </si>
   <si>
-    <t>mad</t>
-  </si>
-  <si>
     <t>a、o</t>
   </si>
   <si>
@@ -843,9 +831,6 @@
     <t>嘴形上下張大，發短音的ㄚ</t>
   </si>
   <si>
-    <t>wash、stop</t>
-  </si>
-  <si>
     <t>al、au、aw、ou</t>
   </si>
   <si>
@@ -855,9 +840,6 @@
     <t>嘴形呈圓形，發短音的ㄛ</t>
   </si>
   <si>
-    <t>call、author、law、bought</t>
-  </si>
-  <si>
     <t>oa、oe、ow、ough、o_e</t>
   </si>
   <si>
@@ -867,9 +849,6 @@
     <t>嘴形有 2 段變化，發長音的ㄡㄨ</t>
   </si>
   <si>
-    <t>coat、poet、flow、 although、phone</t>
-  </si>
-  <si>
     <t>oo、ui、ue、ou、ew、u_e</t>
   </si>
   <si>
@@ -879,9 +858,6 @@
     <t>嘴形向前噘起，發長音的ㄨ</t>
   </si>
   <si>
-    <t>moon、suit、clue、through、chew、mute</t>
-  </si>
-  <si>
     <t>er、ar、or、ure</t>
   </si>
   <si>
@@ -891,9 +867,6 @@
     <t>舌尖往後上方捲，發短音的ㄦ</t>
   </si>
   <si>
-    <t>better、familiar、color、nature</t>
-  </si>
-  <si>
     <t>ir、er、ur、ear</t>
   </si>
   <si>
@@ -912,15 +885,9 @@
     <t>嘴形有 2 段變化，發ㄚㄨ</t>
   </si>
   <si>
-    <t>loud、flower</t>
-  </si>
-  <si>
     <t>[ ɔɪ ]</t>
   </si>
   <si>
-    <t>joy、noise</t>
-  </si>
-  <si>
     <t>b、bb</t>
   </si>
   <si>
@@ -930,9 +897,6 @@
     <t>發ㄅ音</t>
   </si>
   <si>
-    <t>basic、bubble</t>
-  </si>
-  <si>
     <t>d、dd</t>
   </si>
   <si>
@@ -942,9 +906,6 @@
     <t>發短音的ㄉ</t>
   </si>
   <si>
-    <t>dinner、addition</t>
-  </si>
-  <si>
     <t>g、gg</t>
   </si>
   <si>
@@ -954,9 +915,6 @@
     <t>發短音的ㄍ</t>
   </si>
   <si>
-    <t>grammar、luggage</t>
-  </si>
-  <si>
     <t>th</t>
   </si>
   <si>
@@ -966,9 +924,6 @@
     <t>上下齒輕咬舌尖，吹氣同時振動聲帶</t>
   </si>
   <si>
-    <t>this</t>
-  </si>
-  <si>
     <t>j、ge、dge、gi、gy</t>
   </si>
   <si>
@@ -978,9 +933,6 @@
     <t>舌面往上頂住上顎，堵住氣流並振動聲帶，發音接近ㄓ或ㄐ</t>
   </si>
   <si>
-    <t>enjoy、change、judge、apologize、gym</t>
-  </si>
-  <si>
     <t>l、ll</t>
   </si>
   <si>
@@ -1002,9 +954,6 @@
     <t>發短音的ㄧㄝ</t>
   </si>
   <si>
-    <t>young</t>
-  </si>
-  <si>
     <t>w、wh、o</t>
   </si>
   <si>
@@ -1014,9 +963,6 @@
     <t>發短音的ㄨ</t>
   </si>
   <si>
-    <t>world、who、one</t>
-  </si>
-  <si>
     <t>p、pp</t>
   </si>
   <si>
@@ -1026,18 +972,12 @@
     <t>發ㄆ音</t>
   </si>
   <si>
-    <t>keep、application</t>
-  </si>
-  <si>
     <t>t、tt</t>
   </si>
   <si>
     <t>[ t ]</t>
   </si>
   <si>
-    <t>table、letter</t>
-  </si>
-  <si>
     <t>c、k、ck、ch</t>
   </si>
   <si>
@@ -1047,9 +987,6 @@
     <t>發ㄎ音</t>
   </si>
   <si>
-    <t>accept、king、rock、schedule</t>
-  </si>
-  <si>
     <t>h、wh</t>
   </si>
   <si>
@@ -1059,9 +996,6 @@
     <t>發ㄏ音</t>
   </si>
   <si>
-    <t>heaven、when</t>
-  </si>
-  <si>
     <t>s、c、sc</t>
   </si>
   <si>
@@ -1071,9 +1005,6 @@
     <t>發ㄙ音</t>
   </si>
   <si>
-    <t>see、city、school</t>
-  </si>
-  <si>
     <t>c、s、sh、tion</t>
   </si>
   <si>
@@ -1083,9 +1014,6 @@
     <t>舌面輕觸上顎吹氣，發音接近ㄕ、ㄒ</t>
   </si>
   <si>
-    <t>special、sure、fish、action</t>
-  </si>
-  <si>
     <t>mp3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1098,10 +1026,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>full、book、could</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>u、oo、ou</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1118,10 +1042,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>bug、color</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>a、o、e</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1134,408 +1054,480 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ago、together、calendar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bird、her、turn、learn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>嘴形放鬆張開，先做ㄜ口型，再發短音的ㄨ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>[ ɪ ]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[ i ]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘴形有 2 段變化，先做ㄚ口型，再發ㄞㄧ音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i、ie、igh、i_e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[ aɪ ]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oy、oi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v、f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下唇碰到上齒，吹氣同時振動聲帶，發音類似 / f /</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[ v ]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>z、s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[ z ]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雙脣微啟，上下齒閉合，吹氣同時振動聲帶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sion、sure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[ ʒ ]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>舌面往上輕觸上顎，吹氣同時振動聲帶，與 / ʃ / 發音口型相同</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m、mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[ m ]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n、nn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[ n ]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ng、nk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[ ŋ ]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>舌尖平放，再從鼻腔發聲，發ㄥ音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f、fe、gh、ph</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[ f ]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下唇碰到上齒，透過唇齒縫隙吹氣，接近無聲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>th</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[ θ ]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上下齒輕咬舌尖，不振動聲帶吹氣，發音接近ㄙ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ch、tch、ture</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[ tʃ ]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>舌面頂住上顎，堵住氣流後發聲，與 / ʃ / 口型相同，發音接近ㄔ、ㄑ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;1&gt;一、母音音標 (17個)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;2&gt;單母音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;2&gt;雙母音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;1&gt;二、子音音標 (24個)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;2&gt;有聲子音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;2&gt;無聲子音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曲目 03.mp3</t>
+  </si>
+  <si>
+    <t>曲目 04.mp3</t>
+  </si>
+  <si>
+    <t>曲目 05.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曲目 06.mp3</t>
+  </si>
+  <si>
+    <t>曲目 07.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曲目 08.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曲目 20.mp3</t>
+  </si>
+  <si>
+    <t>曲目 21.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曲目 26.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曲目 28.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曲目 32.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曲目 11.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曲目 12.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曲目 13.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曲目 14.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曲目 15.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曲目 18.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曲目 19.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曲目 23.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曲目 24.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曲目 25.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曲目 27.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曲目 30.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曲目 31.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>發ㄊ音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曲目 39.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曲目 41.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曲目 44.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曲目 46.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曲目 49.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曲目 52.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曲目 54.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曲目 56.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曲目 59.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曲目 61.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曲目 64.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曲目 66.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曲目 68.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曲目 70.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曲目 73.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曲目 75.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曲目 77.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘴形有 2 段變化，發ㄛㄧ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘴形放鬆張開，發短音ㄜ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>舌尖頂住上齒齦後發聲，發音接近ㄌ，母音前發音接近ㄌ，母音後發音接近ㄛ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘴唇微微噘起，舌尖上揚並振動聲帶，發音接近ㄖ、ㄦ，母音前發音接近ㄖㄜ，母音後發音接近ㄦ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雙唇緊閉，再從鼻腔發聲，發ㄇ音，母音前發音接近ㄇ，母音後發音接近ㄣ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>舌尖頂住上齒齦，再從鼻腔發聲，發音接近ㄋ、ㄣ，母音前發音接近ㄋ，母音後發音接近ㄣ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>音標</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>發長音的ㄧ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[ ɪ ]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[ i ]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>嘴形有 2 段變化，先做ㄚ口型，再發ㄞㄧ音</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>child、tie、light、fire</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>i、ie、igh、i_e</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[ aɪ ]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>oy、oi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>v、f</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下唇碰到上齒，吹氣同時振動聲帶，發音類似 / f /</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vegetable、of</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[ v ]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>z、s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[ z ]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>雙脣微啟，上下齒閉合，吹氣同時振動聲帶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zoo、pause</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sion、sure</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[ ʒ ]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>舌面往上輕觸上顎，吹氣同時振動聲帶，與 / ʃ / 發音口型相同</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>television、pleasure</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lend、fall</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>romantic、mirror</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>m、mm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[ m ]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>moon、community</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>n、nn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[ n ]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>clean、tennis</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ng、nk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[ ŋ ]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>舌尖平放，再從鼻腔發聲，發ㄥ音</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>long、thank</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>f、fe、gh、ph</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[ f ]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下唇碰到上齒，透過唇齒縫隙吹氣，接近無聲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>family、life、cough、phase</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>th</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[ θ ]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上下齒輕咬舌尖，不振動聲帶吹氣，發音接近ㄙ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>health</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ch、tch、ture</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[ tʃ ]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>舌面頂住上顎，堵住氣流後發聲，與 / ʃ / 口型相同，發音接近ㄔ、ㄑ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lunch、catch、adventure</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;1&gt;一、母音音標 (17個)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;2&gt;單母音</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;2&gt;雙母音</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;1&gt;二、子音音標 (24個)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;2&gt;有聲子音</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;2&gt;無聲子音</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>曲目 03.mp3</t>
-  </si>
-  <si>
-    <t>曲目 04.mp3</t>
-  </si>
-  <si>
-    <t>曲目 05.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>曲目 06.mp3</t>
-  </si>
-  <si>
-    <t>曲目 07.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>曲目 08.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>曲目 20.mp3</t>
-  </si>
-  <si>
-    <t>曲目 21.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>曲目 26.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>曲目 28.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>曲目 32.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>曲目 11.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>曲目 12.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>曲目 13.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>曲目 14.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>曲目 15.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>曲目 18.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>曲目 19.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>曲目 23.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>曲目 24.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>曲目 25.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>曲目 27.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>曲目 30.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>曲目 31.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>發ㄊ音</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>曲目 39.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>曲目 41.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>曲目 44.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>曲目 46.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>曲目 49.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>曲目 52.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>曲目 54.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>曲目 56.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>曲目 59.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>曲目 61.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>曲目 64.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>曲目 66.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>曲目 68.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>曲目 70.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>曲目 73.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>曲目 75.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>曲目 77.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>嘴形有 2 段變化，發ㄛㄧ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>嘴形放鬆張開，發短音ㄜ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>舌尖頂住上齒齦後發聲，發音接近ㄌ，母音前發音接近ㄌ，母音後發音接近ㄛ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>嘴唇微微噘起，舌尖上揚並振動聲帶，發音接近ㄖ、ㄦ，母音前發音接近ㄖㄜ，母音後發音接近ㄦ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>雙唇緊閉，再從鼻腔發聲，發ㄇ音，母音前發音接近ㄇ，母音後發音接近ㄣ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>舌尖頂住上齒齦，再從鼻腔發聲，發音接近ㄋ、ㄣ，母音前發音接近ㄋ，母音後發音接近ㄣ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>音標</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>單字範例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>it [ɪt]</t>
+  </si>
+  <si>
+    <t>many [ˋmɛnɪ]、letter [ˋlɛtɚ]、pleasure [ˋplɛʒɚ]</t>
+  </si>
+  <si>
+    <t>plain [plen]、neighbor [ˋnebɚ]、play [ple]、prey [pre]、break [brek]、mate [met]</t>
+  </si>
+  <si>
+    <t>mad [mæd]</t>
+  </si>
+  <si>
+    <t>wash [wɑʃ]、stop [stɑp]</t>
+  </si>
+  <si>
+    <t>call [kɔl]、author [ˋɔθɚ]、law [lɔ]、bought [bɔt]</t>
+  </si>
+  <si>
+    <t>coat [kot]、poet [ˋpoɪɪt]、flow [flo]、although [ɔlˋðo]、phone [fon]</t>
+  </si>
+  <si>
+    <t>full [fʊl]、book [bʊk]、could [kʊd]</t>
+  </si>
+  <si>
+    <t>moon [mun]、suit [sut]、clue [klu]、through [θru]、chew [tʃu]、mute [mjut]</t>
+  </si>
+  <si>
+    <t>bug [bʌg]、color [ˋkʌlɚ]</t>
+  </si>
+  <si>
+    <t>ago [əˋgo]、together [təˋgɛðɚ]、calendar [ˋkæləndɚ]</t>
+  </si>
+  <si>
+    <t>better [ˋbɛtɚ]、familiar [fəˋmɪljɚ]、color [ˋkʌlɚ]、nature [ˋnetʃɚ]</t>
+  </si>
+  <si>
+    <t>bird [bɝd]、her [hɝ]、turn [tɝn]、learn [lɝn]</t>
+  </si>
+  <si>
+    <t>feed [fid]、tea [ti]、relief [rɪˋlif]、ceiling [ˋsilɪŋ]、these [ðiz]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>basic [ˋbesɪk]、bubble [ˋbʌb!]</t>
+  </si>
+  <si>
+    <t>dinner [ˋdɪnɚ]、addition [əˋdɪʃən]</t>
+  </si>
+  <si>
+    <t>grammar [ˋgræmɚ]、luggage [ˋlʌgɪdʒ]</t>
+  </si>
+  <si>
+    <t>vegetable [ˋvɛdʒtəb!]、of [ʌv]</t>
+  </si>
+  <si>
+    <t>zoo [zu]、pause [pɔz]</t>
+  </si>
+  <si>
+    <t>this [ðɪs]</t>
+  </si>
+  <si>
+    <t>television [ˋtɛlə͵vɪʒən]、pleasure [ˋplɛʒɚ]</t>
+  </si>
+  <si>
+    <t>enjoy [ɪnˋdʒɔɪ]、change [tʃendʒ]、judge [dʒʌdʒ]、apologize [əˋpɑlə͵dʒaɪz]、gym [dʒɪm]</t>
+  </si>
+  <si>
+    <t>lend [lɛnd]、fall [fɔl]</t>
+  </si>
+  <si>
+    <t>romantic [roˋmæntɪk]、mirror [ˋmɪrɚ]</t>
+  </si>
+  <si>
+    <t>moon [mun]、community [kəˋmjunətɪ]</t>
+  </si>
+  <si>
+    <t>clean [klin]、tennis [ˋtɛnɪs]</t>
+  </si>
+  <si>
+    <t>long [lɔŋ]、thank [θæŋk]</t>
+  </si>
+  <si>
+    <t>young [jʌŋ]</t>
+  </si>
+  <si>
+    <t>world [wɝld]、who [hu]、one [wʌn]</t>
+  </si>
+  <si>
+    <t>keep [kip]、application [ˋæplə͵keʃən]</t>
+  </si>
+  <si>
+    <t>table [ˋteb!]、letter [ˋlɛtɚ]</t>
+  </si>
+  <si>
+    <t>accept [əkˋsɛpt]、king [kɪŋ]、rock [rɑk]、schedule [ˋskɛdʒul] (*美式發音，多數讀 /skɛdʒul/ 或 /skɛdʒəl/)</t>
+  </si>
+  <si>
+    <t>heaven [ˋhɛvən]、when [hwɛn]</t>
+  </si>
+  <si>
+    <t>family [ˋfæməlɪ]、life [laɪf]、cough [kɔf]、phase [fez]</t>
+  </si>
+  <si>
+    <t>see [si]、city [ˋsɪtɪ]、school [skul]</t>
+  </si>
+  <si>
+    <t>health [hɛlθ]</t>
+  </si>
+  <si>
+    <t>special [ˋspɛʃəl]、sure [ʃʊr]、fish [fɪʃ]、action [ˋækʃən]</t>
+  </si>
+  <si>
+    <t>lunch [lʌntʃ]、catch [kætʃ]、adventure [ədˋvɛntʃɚ]</t>
+  </si>
+  <si>
+    <t>child [tʃaɪld]、tie [taɪ]、light [laɪt]、fire [faɪr]</t>
+  </si>
+  <si>
+    <t>loud [laʊd]、flower [ˋflaʊɚ]</t>
+  </si>
+  <si>
+    <t>joy [dʒɔɪ]、noise [nɔɪz]</t>
   </si>
 </sst>
 </file>
@@ -3065,26 +3057,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="D17" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24:G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
     <col min="1" max="1" width="28" customWidth="1"/>
     <col min="3" max="3" width="14.77734375" customWidth="1"/>
-    <col min="6" max="6" width="103.21875" customWidth="1"/>
-    <col min="7" max="7" width="40.33203125" customWidth="1"/>
+    <col min="6" max="6" width="57.109375" customWidth="1"/>
+    <col min="7" max="7" width="95.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="19.8">
       <c r="A1" s="3" t="s">
-        <v>404</v>
+        <v>363</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="17.399999999999999">
       <c r="A3" s="4" t="s">
-        <v>405</v>
+        <v>364</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -3092,22 +3084,22 @@
         <v>241</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>458</v>
+        <v>417</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>345</v>
+        <v>321</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>346</v>
+        <v>322</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>347</v>
+        <v>323</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>243</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>244</v>
+        <v>419</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -3115,10 +3107,10 @@
         <v>245</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>361</v>
+        <v>332</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>436</v>
+        <v>395</v>
       </c>
       <c r="D6" s="2">
         <v>17</v>
@@ -3129,8 +3121,8 @@
       <c r="F6" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>15</v>
+      <c r="G6" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -3138,10 +3130,10 @@
         <v>247</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>362</v>
+        <v>333</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>435</v>
+        <v>394</v>
       </c>
       <c r="D7" s="2">
         <v>18</v>
@@ -3150,21 +3142,21 @@
         <v>19</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>248</v>
+        <v>418</v>
+      </c>
+      <c r="G7" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>250</v>
-      </c>
       <c r="C8" s="2" t="s">
-        <v>438</v>
+        <v>397</v>
       </c>
       <c r="D8" s="2">
         <v>15</v>
@@ -3173,21 +3165,21 @@
         <v>16</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
+      </c>
+      <c r="G8" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>437</v>
+        <v>396</v>
       </c>
       <c r="D9" s="2">
         <v>15</v>
@@ -3196,21 +3188,21 @@
         <v>16</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>256</v>
+        <v>253</v>
+      </c>
+      <c r="G9" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="2" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>439</v>
+        <v>398</v>
       </c>
       <c r="D10" s="2">
         <v>19</v>
@@ -3219,21 +3211,21 @@
         <v>20</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>260</v>
+        <v>256</v>
+      </c>
+      <c r="G10" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="2" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>440</v>
+        <v>399</v>
       </c>
       <c r="D11" s="2">
         <v>15</v>
@@ -3242,21 +3234,21 @@
         <v>16</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>264</v>
+        <v>259</v>
+      </c>
+      <c r="G11" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="2" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>441</v>
+        <v>400</v>
       </c>
       <c r="D12" s="2">
         <v>15</v>
@@ -3265,21 +3257,21 @@
         <v>16</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>268</v>
+        <v>262</v>
+      </c>
+      <c r="G12" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="2" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>442</v>
+        <v>401</v>
       </c>
       <c r="D13" s="2">
         <v>17</v>
@@ -3288,21 +3280,21 @@
         <v>18</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>272</v>
+        <v>265</v>
+      </c>
+      <c r="G13" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="2" t="s">
-        <v>349</v>
+        <v>324</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>350</v>
+        <v>325</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>443</v>
+        <v>402</v>
       </c>
       <c r="D14" s="2">
         <v>14.5</v>
@@ -3311,21 +3303,21 @@
         <v>15.5</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>348</v>
+        <v>331</v>
+      </c>
+      <c r="G14" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>444</v>
+        <v>403</v>
       </c>
       <c r="D15" s="2">
         <v>18</v>
@@ -3334,21 +3326,21 @@
         <v>19</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>276</v>
+        <v>268</v>
+      </c>
+      <c r="G15" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="2" t="s">
-        <v>351</v>
+        <v>326</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>352</v>
+        <v>327</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>448</v>
+        <v>407</v>
       </c>
       <c r="D16" s="2">
         <v>18</v>
@@ -3357,21 +3349,21 @@
         <v>19</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>353</v>
+        <v>412</v>
+      </c>
+      <c r="G16" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="2" t="s">
-        <v>354</v>
+        <v>328</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>355</v>
+        <v>329</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>445</v>
+        <v>404</v>
       </c>
       <c r="D17" s="2">
         <v>15</v>
@@ -3380,21 +3372,21 @@
         <v>16</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>357</v>
+        <v>330</v>
+      </c>
+      <c r="G17" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="2" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>446</v>
+        <v>405</v>
       </c>
       <c r="D18" s="2">
         <v>15</v>
@@ -3403,21 +3395,21 @@
         <v>16</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>280</v>
+        <v>271</v>
+      </c>
+      <c r="G18" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="2" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
       <c r="D19" s="2">
         <v>15</v>
@@ -3426,10 +3418,10 @@
         <v>16</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>358</v>
+        <v>274</v>
+      </c>
+      <c r="G19" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -3439,7 +3431,7 @@
     </row>
     <row r="21" spans="1:7" ht="17.399999999999999">
       <c r="A21" s="4" t="s">
-        <v>406</v>
+        <v>365</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -3458,13 +3450,13 @@
         <v>242</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>345</v>
+        <v>321</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>346</v>
+        <v>322</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>347</v>
+        <v>323</v>
       </c>
       <c r="F23" s="5" t="s">
         <v>243</v>
@@ -3475,13 +3467,13 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="6" t="s">
-        <v>365</v>
+        <v>335</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>366</v>
+        <v>336</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>449</v>
+        <v>408</v>
       </c>
       <c r="D24" s="2">
         <v>18.5</v>
@@ -3490,21 +3482,21 @@
         <v>19.5</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>363</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>364</v>
+        <v>334</v>
+      </c>
+      <c r="G24" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="2" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>450</v>
+        <v>409</v>
       </c>
       <c r="D25" s="2">
         <v>18</v>
@@ -3513,21 +3505,21 @@
         <v>19</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>287</v>
+        <v>277</v>
+      </c>
+      <c r="G25" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="2" t="s">
-        <v>367</v>
+        <v>337</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>451</v>
+        <v>410</v>
       </c>
       <c r="D26" s="2">
         <v>18.5</v>
@@ -3536,10 +3528,10 @@
         <v>19.5</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>289</v>
+        <v>411</v>
+      </c>
+      <c r="G26" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -3549,7 +3541,7 @@
     </row>
     <row r="28" spans="1:7" ht="19.8">
       <c r="A28" s="3" t="s">
-        <v>407</v>
+        <v>366</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -3562,7 +3554,7 @@
     </row>
     <row r="30" spans="1:7" ht="17.399999999999999">
       <c r="A30" s="4" t="s">
-        <v>408</v>
+        <v>367</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -3581,13 +3573,13 @@
         <v>242</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>345</v>
+        <v>321</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>346</v>
+        <v>322</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>347</v>
+        <v>323</v>
       </c>
       <c r="F32" s="5" t="s">
         <v>243</v>
@@ -3598,13 +3590,13 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="2" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>410</v>
+        <v>369</v>
       </c>
       <c r="D33" s="2">
         <v>17</v>
@@ -3613,21 +3605,21 @@
         <v>18</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>293</v>
+        <v>281</v>
+      </c>
+      <c r="G33" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="2" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>411</v>
+        <v>370</v>
       </c>
       <c r="D34" s="2">
         <v>17</v>
@@ -3636,21 +3628,21 @@
         <v>18</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>297</v>
+        <v>284</v>
+      </c>
+      <c r="G34" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="2" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>413</v>
+        <v>372</v>
       </c>
       <c r="D35" s="2">
         <v>17</v>
@@ -3659,21 +3651,21 @@
         <v>18</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>301</v>
+        <v>287</v>
+      </c>
+      <c r="G35" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="2" t="s">
-        <v>368</v>
+        <v>338</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>371</v>
+        <v>340</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>416</v>
+        <v>375</v>
       </c>
       <c r="D36" s="2">
         <v>17</v>
@@ -3682,21 +3674,21 @@
         <v>18</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>370</v>
+        <v>339</v>
+      </c>
+      <c r="G36" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="2" t="s">
-        <v>372</v>
+        <v>341</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>373</v>
+        <v>342</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>417</v>
+        <v>376</v>
       </c>
       <c r="D37" s="2">
         <v>17</v>
@@ -3705,21 +3697,21 @@
         <v>18</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>375</v>
+        <v>343</v>
+      </c>
+      <c r="G37" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="2" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>303</v>
+        <v>289</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>418</v>
+        <v>377</v>
       </c>
       <c r="D38" s="2">
         <v>16</v>
@@ -3728,21 +3720,21 @@
         <v>18</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>290</v>
+      </c>
+      <c r="G38" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="32.4">
       <c r="A39" s="2" t="s">
-        <v>376</v>
+        <v>344</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>377</v>
+        <v>345</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>419</v>
+        <v>378</v>
       </c>
       <c r="D39" s="2">
         <v>16</v>
@@ -3751,21 +3743,21 @@
         <v>17</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="G39" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="G39" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="32.4">
+      <c r="A40" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>379</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>420</v>
       </c>
       <c r="D40" s="2">
         <v>16</v>
@@ -3774,21 +3766,21 @@
         <v>17</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>293</v>
+      </c>
+      <c r="G40" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="32.4">
       <c r="A41" s="2" t="s">
-        <v>310</v>
+        <v>294</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>311</v>
+        <v>295</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>421</v>
+        <v>380</v>
       </c>
       <c r="D41" s="2">
         <v>17</v>
@@ -3797,21 +3789,21 @@
         <v>18</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>413</v>
+      </c>
+      <c r="G41" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="32.4">
       <c r="A42" s="2" t="s">
-        <v>312</v>
+        <v>296</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>313</v>
+        <v>297</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>425</v>
+        <v>384</v>
       </c>
       <c r="D42" s="2">
         <v>22.5</v>
@@ -3820,21 +3812,21 @@
         <v>23.5</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>455</v>
-      </c>
-      <c r="G42" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="G42" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="32.4">
+      <c r="A43" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="C43" s="2" t="s">
         <v>381</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>422</v>
       </c>
       <c r="D43" s="2">
         <v>17</v>
@@ -3843,21 +3835,21 @@
         <v>18</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>415</v>
+      </c>
+      <c r="G43" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="32.4">
       <c r="A44" s="2" t="s">
-        <v>385</v>
+        <v>349</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>386</v>
+        <v>350</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>423</v>
+        <v>382</v>
       </c>
       <c r="D44" s="2">
         <v>17</v>
@@ -3866,21 +3858,21 @@
         <v>18</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>387</v>
+        <v>416</v>
+      </c>
+      <c r="G44" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="2" t="s">
-        <v>388</v>
+        <v>351</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>389</v>
+        <v>352</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>432</v>
+        <v>391</v>
       </c>
       <c r="D45" s="2">
         <v>16</v>
@@ -3889,21 +3881,21 @@
         <v>17</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>391</v>
+        <v>353</v>
+      </c>
+      <c r="G45" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="2" t="s">
-        <v>314</v>
+        <v>298</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>315</v>
+        <v>299</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>428</v>
+        <v>387</v>
       </c>
       <c r="D46" s="2">
         <v>16</v>
@@ -3912,21 +3904,21 @@
         <v>17</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>317</v>
+        <v>300</v>
+      </c>
+      <c r="G46" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="2" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>319</v>
+        <v>302</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>429</v>
+        <v>388</v>
       </c>
       <c r="D47" s="2">
         <v>16</v>
@@ -3935,10 +3927,10 @@
         <v>17</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>321</v>
+        <v>303</v>
+      </c>
+      <c r="G47" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -3948,7 +3940,7 @@
     </row>
     <row r="49" spans="1:7" ht="17.399999999999999">
       <c r="A49" s="4" t="s">
-        <v>409</v>
+        <v>368</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
@@ -3967,13 +3959,13 @@
         <v>242</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>345</v>
+        <v>321</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>346</v>
+        <v>322</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>347</v>
+        <v>323</v>
       </c>
       <c r="F51" s="5" t="s">
         <v>243</v>
@@ -3984,13 +3976,13 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="2" t="s">
-        <v>322</v>
+        <v>304</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>323</v>
+        <v>305</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>424</v>
+        <v>383</v>
       </c>
       <c r="D52" s="2">
         <v>17</v>
@@ -3999,21 +3991,21 @@
         <v>18</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="G52" s="2" t="s">
-        <v>325</v>
+        <v>306</v>
+      </c>
+      <c r="G52" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="2" t="s">
-        <v>326</v>
+        <v>307</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>327</v>
+        <v>308</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>427</v>
+        <v>386</v>
       </c>
       <c r="D53" s="2">
         <v>17</v>
@@ -4022,21 +4014,21 @@
         <v>18</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="G53" s="2" t="s">
-        <v>328</v>
+        <v>393</v>
+      </c>
+      <c r="G53" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="2" t="s">
-        <v>329</v>
+        <v>309</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>330</v>
+        <v>310</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>415</v>
+        <v>374</v>
       </c>
       <c r="D54" s="2">
         <v>17</v>
@@ -4045,21 +4037,21 @@
         <v>18</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="G54" s="2" t="s">
-        <v>332</v>
+        <v>311</v>
+      </c>
+      <c r="G54" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="2" t="s">
-        <v>333</v>
+        <v>312</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>334</v>
+        <v>313</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>414</v>
+        <v>373</v>
       </c>
       <c r="D55" s="2">
         <v>17</v>
@@ -4068,21 +4060,21 @@
         <v>18</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="G55" s="2" t="s">
-        <v>336</v>
+        <v>314</v>
+      </c>
+      <c r="G55" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="2" t="s">
-        <v>392</v>
+        <v>354</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>393</v>
+        <v>355</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>412</v>
+        <v>371</v>
       </c>
       <c r="D56" s="2">
         <v>17</v>
@@ -4091,21 +4083,21 @@
         <v>18</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="G56" s="2" t="s">
-        <v>395</v>
+        <v>356</v>
+      </c>
+      <c r="G56" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="2" t="s">
-        <v>337</v>
+        <v>315</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>338</v>
+        <v>316</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>426</v>
+        <v>385</v>
       </c>
       <c r="D57" s="2">
         <v>17</v>
@@ -4114,21 +4106,21 @@
         <v>18</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="G57" s="2" t="s">
-        <v>340</v>
+        <v>317</v>
+      </c>
+      <c r="G57" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="2" t="s">
-        <v>396</v>
+        <v>357</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>397</v>
+        <v>358</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>430</v>
+        <v>389</v>
       </c>
       <c r="D58" s="2">
         <v>16</v>
@@ -4137,21 +4129,21 @@
         <v>17</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="G58" s="2" t="s">
-        <v>399</v>
+        <v>359</v>
+      </c>
+      <c r="G58" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="2" t="s">
-        <v>341</v>
+        <v>318</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>342</v>
+        <v>319</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>431</v>
+        <v>390</v>
       </c>
       <c r="D59" s="2">
         <v>16.5</v>
@@ -4160,21 +4152,21 @@
         <v>17.5</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="G59" s="2" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>320</v>
+      </c>
+      <c r="G59" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="32.4">
       <c r="A60" s="2" t="s">
-        <v>400</v>
+        <v>360</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>401</v>
+        <v>361</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>433</v>
+        <v>392</v>
       </c>
       <c r="D60" s="2">
         <v>16</v>
@@ -4183,10 +4175,10 @@
         <v>17</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="G60" s="2" t="s">
-        <v>403</v>
+        <v>362</v>
+      </c>
+      <c r="G60" t="s">
+        <v>457</v>
       </c>
     </row>
   </sheetData>
@@ -4198,401 +4190,61 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C88"/>
+  <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection sqref="A1:A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="29.88671875" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" customWidth="1"/>
-    <col min="3" max="3" width="123.21875" customWidth="1"/>
+    <col min="1" max="1" width="104.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="19.8">
-      <c r="A1" s="3"/>
-    </row>
-    <row r="3" spans="1:3" ht="17.399999999999999">
-      <c r="A3" s="4"/>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-    </row>
-    <row r="27" spans="1:3" ht="17.399999999999999">
-      <c r="A27" s="4"/>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-    </row>
-    <row r="36" spans="1:3" ht="19.8">
-      <c r="A36" s="3"/>
-    </row>
-    <row r="38" spans="1:3" ht="17.399999999999999">
-      <c r="A38" s="4"/>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="5"/>
-      <c r="B40" s="5"/>
-      <c r="C40" s="5"/>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" s="2"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" s="2"/>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="2"/>
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" s="2"/>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" s="2"/>
-      <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" s="2"/>
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" s="2"/>
-      <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" s="2"/>
-      <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" s="2"/>
-      <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" s="2"/>
-      <c r="B57" s="2"/>
-      <c r="C57" s="2"/>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" s="2"/>
-      <c r="B58" s="2"/>
-      <c r="C58" s="2"/>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" s="2"/>
-      <c r="B59" s="2"/>
-      <c r="C59" s="2"/>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" s="2"/>
-      <c r="B60" s="2"/>
-      <c r="C60" s="2"/>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" s="2"/>
-      <c r="B61" s="2"/>
-      <c r="C61" s="2"/>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" s="2"/>
-      <c r="B62" s="2"/>
-      <c r="C62" s="2"/>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63" s="2"/>
-      <c r="B63" s="2"/>
-      <c r="C63" s="2"/>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="A64" s="2"/>
-      <c r="B64" s="2"/>
-      <c r="C64" s="2"/>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="A65" s="2"/>
-      <c r="B65" s="2"/>
-      <c r="C65" s="2"/>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="A66" s="2"/>
-      <c r="B66" s="2"/>
-      <c r="C66" s="2"/>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67" s="2"/>
-      <c r="B67" s="2"/>
-      <c r="C67" s="2"/>
-    </row>
-    <row r="69" spans="1:3" ht="17.399999999999999">
-      <c r="A69" s="4"/>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="A71" s="5"/>
-      <c r="B71" s="5"/>
-      <c r="C71" s="5"/>
-    </row>
-    <row r="72" spans="1:3">
-      <c r="A72" s="2"/>
-      <c r="B72" s="2"/>
-      <c r="C72" s="2"/>
-    </row>
-    <row r="73" spans="1:3">
-      <c r="A73" s="2"/>
-      <c r="B73" s="2"/>
-      <c r="C73" s="2"/>
-    </row>
-    <row r="74" spans="1:3">
-      <c r="A74" s="2"/>
-      <c r="B74" s="2"/>
-      <c r="C74" s="2"/>
-    </row>
-    <row r="75" spans="1:3">
-      <c r="A75" s="2"/>
-      <c r="B75" s="2"/>
-      <c r="C75" s="2"/>
-    </row>
-    <row r="76" spans="1:3">
-      <c r="A76" s="2"/>
-      <c r="B76" s="2"/>
-      <c r="C76" s="2"/>
-    </row>
-    <row r="77" spans="1:3">
-      <c r="A77" s="2"/>
-      <c r="B77" s="2"/>
-      <c r="C77" s="2"/>
-    </row>
-    <row r="78" spans="1:3">
-      <c r="A78" s="2"/>
-      <c r="B78" s="2"/>
-      <c r="C78" s="2"/>
-    </row>
-    <row r="79" spans="1:3">
-      <c r="A79" s="2"/>
-      <c r="B79" s="2"/>
-      <c r="C79" s="2"/>
-    </row>
-    <row r="80" spans="1:3">
-      <c r="A80" s="2"/>
-      <c r="B80" s="2"/>
-      <c r="C80" s="2"/>
-    </row>
-    <row r="81" spans="1:3">
-      <c r="A81" s="2"/>
-      <c r="B81" s="2"/>
-      <c r="C81" s="2"/>
-    </row>
-    <row r="82" spans="1:3">
-      <c r="A82" s="2"/>
-      <c r="B82" s="2"/>
-      <c r="C82" s="2"/>
-    </row>
-    <row r="83" spans="1:3">
-      <c r="A83" s="2"/>
-      <c r="B83" s="2"/>
-      <c r="C83" s="2"/>
-    </row>
-    <row r="84" spans="1:3">
-      <c r="A84" s="2"/>
-      <c r="B84" s="2"/>
-      <c r="C84" s="2"/>
-    </row>
-    <row r="85" spans="1:3">
-      <c r="A85" s="2"/>
-      <c r="B85" s="2"/>
-      <c r="C85" s="2"/>
-    </row>
-    <row r="86" spans="1:3">
-      <c r="A86" s="2"/>
-      <c r="B86" s="2"/>
-      <c r="C86" s="2"/>
-    </row>
-    <row r="87" spans="1:3">
-      <c r="A87" s="2"/>
-      <c r="B87" s="2"/>
-      <c r="C87" s="2"/>
-    </row>
-    <row r="88" spans="1:3">
-      <c r="A88" s="2"/>
-      <c r="B88" s="2"/>
-      <c r="C88" s="2"/>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>457</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/doc/table.xlsx
+++ b/doc/table.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="12" windowWidth="19200" windowHeight="11868" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="12" windowWidth="19200" windowHeight="11868"/>
   </bookViews>
   <sheets>
     <sheet name="不規則動詞" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="477">
   <si>
     <t>主格</t>
   </si>
@@ -900,641 +900,732 @@
     <t>d、dd</t>
   </si>
   <si>
+    <t>發短音的ㄉ</t>
+  </si>
+  <si>
+    <t>g、gg</t>
+  </si>
+  <si>
+    <t>[ g ]</t>
+  </si>
+  <si>
+    <t>發短音的ㄍ</t>
+  </si>
+  <si>
+    <t>th</t>
+  </si>
+  <si>
+    <t>[ ð ]</t>
+  </si>
+  <si>
+    <t>上下齒輕咬舌尖，吹氣同時振動聲帶</t>
+  </si>
+  <si>
+    <t>j、ge、dge、gi、gy</t>
+  </si>
+  <si>
+    <t>[ dʒ ]</t>
+  </si>
+  <si>
+    <t>舌面往上頂住上顎，堵住氣流並振動聲帶，發音接近ㄓ或ㄐ</t>
+  </si>
+  <si>
+    <t>l、ll</t>
+  </si>
+  <si>
+    <t>[ l ]</t>
+  </si>
+  <si>
+    <t>r、rr</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>[ j ]</t>
+  </si>
+  <si>
+    <t>發短音的ㄧㄝ</t>
+  </si>
+  <si>
+    <t>w、wh、o</t>
+  </si>
+  <si>
+    <t>[ w ]</t>
+  </si>
+  <si>
+    <t>發短音的ㄨ</t>
+  </si>
+  <si>
+    <t>p、pp</t>
+  </si>
+  <si>
+    <t>[ p ]</t>
+  </si>
+  <si>
+    <t>發ㄆ音</t>
+  </si>
+  <si>
+    <t>t、tt</t>
+  </si>
+  <si>
+    <t>c、k、ck、ch</t>
+  </si>
+  <si>
+    <t>[ k ]</t>
+  </si>
+  <si>
+    <t>發ㄎ音</t>
+  </si>
+  <si>
+    <t>h、wh</t>
+  </si>
+  <si>
+    <t>[ h ]</t>
+  </si>
+  <si>
+    <t>發ㄏ音</t>
+  </si>
+  <si>
+    <t>s、c、sc</t>
+  </si>
+  <si>
+    <t>發ㄙ音</t>
+  </si>
+  <si>
+    <t>c、s、sh、tion</t>
+  </si>
+  <si>
+    <t>[ ʃ ]</t>
+  </si>
+  <si>
+    <t>舌面輕觸上顎吹氣，發音接近ㄕ、ㄒ</t>
+  </si>
+  <si>
+    <t>mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>start</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u、oo、ou</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[ ʊ ]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u、o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[ ʌ ]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a、o、e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[ ə ]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弱化音，發短音的ㄜ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘴形放鬆張開，先做ㄜ口型，再發短音的ㄨ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[ ɪ ]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[ i ]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘴形有 2 段變化，先做ㄚ口型，再發ㄞㄧ音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i、ie、igh、i_e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[ aɪ ]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oy、oi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v、f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下唇碰到上齒，吹氣同時振動聲帶，發音類似 / f /</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[ v ]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>z、s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[ z ]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雙脣微啟，上下齒閉合，吹氣同時振動聲帶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sion、sure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[ ʒ ]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>舌面往上輕觸上顎，吹氣同時振動聲帶，與 / ʃ / 發音口型相同</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m、mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[ m ]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n、nn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[ n ]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ng、nk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[ ŋ ]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>舌尖平放，再從鼻腔發聲，發ㄥ音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f、fe、gh、ph</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[ f ]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下唇碰到上齒，透過唇齒縫隙吹氣，接近無聲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>th</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[ θ ]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上下齒輕咬舌尖，不振動聲帶吹氣，發音接近ㄙ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ch、tch、ture</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>舌面頂住上顎，堵住氣流後發聲，與 / ʃ / 口型相同，發音接近ㄔ、ㄑ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;1&gt;一、母音音標 (17個)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;2&gt;單母音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;2&gt;雙母音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;1&gt;二、子音音標 (24個)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;2&gt;有聲子音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;2&gt;無聲子音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曲目 03.mp3</t>
+  </si>
+  <si>
+    <t>曲目 04.mp3</t>
+  </si>
+  <si>
+    <t>曲目 05.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曲目 06.mp3</t>
+  </si>
+  <si>
+    <t>曲目 07.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曲目 08.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曲目 20.mp3</t>
+  </si>
+  <si>
+    <t>曲目 21.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曲目 26.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曲目 28.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曲目 32.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曲目 11.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曲目 12.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曲目 13.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曲目 14.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曲目 15.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曲目 18.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曲目 19.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曲目 23.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曲目 24.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曲目 25.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曲目 27.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曲目 30.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曲目 31.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>發ㄊ音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曲目 39.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曲目 41.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曲目 44.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曲目 46.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曲目 49.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曲目 52.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曲目 54.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曲目 56.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曲目 59.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曲目 61.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曲目 64.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曲目 66.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曲目 68.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曲目 70.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曲目 73.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曲目 75.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曲目 77.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘴形有 2 段變化，發ㄛㄧ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘴形放鬆張開，發短音ㄜ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>舌尖頂住上齒齦後發聲，發音接近ㄌ，母音前發音接近ㄌ，母音後發音接近ㄛ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘴唇微微噘起，舌尖上揚並振動聲帶，發音接近ㄖ、ㄦ，母音前發音接近ㄖㄜ，母音後發音接近ㄦ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雙唇緊閉，再從鼻腔發聲，發ㄇ音，母音前發音接近ㄇ，母音後發音接近ㄣ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>舌尖頂住上齒齦，再從鼻腔發聲，發音接近ㄋ、ㄣ，母音前發音接近ㄋ，母音後發音接近ㄣ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>音標</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>發長音的ㄧ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>單字範例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>it [ɪt]</t>
+  </si>
+  <si>
+    <t>many [ˋmɛnɪ]、letter [ˋlɛtɚ]、pleasure [ˋplɛʒɚ]</t>
+  </si>
+  <si>
+    <t>plain [plen]、neighbor [ˋnebɚ]、play [ple]、prey [pre]、break [brek]、mate [met]</t>
+  </si>
+  <si>
+    <t>mad [mæd]</t>
+  </si>
+  <si>
+    <t>wash [wɑʃ]、stop [stɑp]</t>
+  </si>
+  <si>
+    <t>call [kɔl]、author [ˋɔθɚ]、law [lɔ]、bought [bɔt]</t>
+  </si>
+  <si>
+    <t>coat [kot]、poet [ˋpoɪɪt]、flow [flo]、although [ɔlˋðo]、phone [fon]</t>
+  </si>
+  <si>
+    <t>full [fʊl]、book [bʊk]、could [kʊd]</t>
+  </si>
+  <si>
+    <t>moon [mun]、suit [sut]、clue [klu]、through [θru]、chew [tʃu]、mute [mjut]</t>
+  </si>
+  <si>
+    <t>bug [bʌg]、color [ˋkʌlɚ]</t>
+  </si>
+  <si>
+    <t>ago [əˋgo]、together [təˋgɛðɚ]、calendar [ˋkæləndɚ]</t>
+  </si>
+  <si>
+    <t>better [ˋbɛtɚ]、familiar [fəˋmɪljɚ]、color [ˋkʌlɚ]、nature [ˋnetʃɚ]</t>
+  </si>
+  <si>
+    <t>bird [bɝd]、her [hɝ]、turn [tɝn]、learn [lɝn]</t>
+  </si>
+  <si>
+    <t>feed [fid]、tea [ti]、relief [rɪˋlif]、ceiling [ˋsilɪŋ]、these [ðiz]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>basic [ˋbesɪk]、bubble [ˋbʌb!]</t>
+  </si>
+  <si>
+    <t>dinner [ˋdɪnɚ]、addition [əˋdɪʃən]</t>
+  </si>
+  <si>
+    <t>grammar [ˋgræmɚ]、luggage [ˋlʌgɪdʒ]</t>
+  </si>
+  <si>
+    <t>vegetable [ˋvɛdʒtəb!]、of [ʌv]</t>
+  </si>
+  <si>
+    <t>zoo [zu]、pause [pɔz]</t>
+  </si>
+  <si>
+    <t>this [ðɪs]</t>
+  </si>
+  <si>
+    <t>television [ˋtɛlə͵vɪʒən]、pleasure [ˋplɛʒɚ]</t>
+  </si>
+  <si>
+    <t>enjoy [ɪnˋdʒɔɪ]、change [tʃendʒ]、judge [dʒʌdʒ]、apologize [əˋpɑlə͵dʒaɪz]、gym [dʒɪm]</t>
+  </si>
+  <si>
+    <t>lend [lɛnd]、fall [fɔl]</t>
+  </si>
+  <si>
+    <t>romantic [roˋmæntɪk]、mirror [ˋmɪrɚ]</t>
+  </si>
+  <si>
+    <t>moon [mun]、community [kəˋmjunətɪ]</t>
+  </si>
+  <si>
+    <t>clean [klin]、tennis [ˋtɛnɪs]</t>
+  </si>
+  <si>
+    <t>long [lɔŋ]、thank [θæŋk]</t>
+  </si>
+  <si>
+    <t>young [jʌŋ]</t>
+  </si>
+  <si>
+    <t>world [wɝld]、who [hu]、one [wʌn]</t>
+  </si>
+  <si>
+    <t>keep [kip]、application [ˋæplə͵keʃən]</t>
+  </si>
+  <si>
+    <t>table [ˋteb!]、letter [ˋlɛtɚ]</t>
+  </si>
+  <si>
+    <t>accept [əkˋsɛpt]、king [kɪŋ]、rock [rɑk]、schedule [ˋskɛdʒul] (*美式發音，多數讀 /skɛdʒul/ 或 /skɛdʒəl/)</t>
+  </si>
+  <si>
+    <t>heaven [ˋhɛvən]、when [hwɛn]</t>
+  </si>
+  <si>
+    <t>family [ˋfæməlɪ]、life [laɪf]、cough [kɔf]、phase [fez]</t>
+  </si>
+  <si>
+    <t>health [hɛlθ]</t>
+  </si>
+  <si>
+    <t>special [ˋspɛʃəl]、sure [ʃʊr]、fish [fɪʃ]、action [ˋækʃən]</t>
+  </si>
+  <si>
+    <t>lunch [lʌntʃ]、catch [kætʃ]、adventure [ədˋvɛntʃɚ]</t>
+  </si>
+  <si>
+    <t>child [tʃaɪld]、tie [taɪ]、light [laɪt]、fire [faɪr]</t>
+  </si>
+  <si>
+    <t>loud [laʊd]、flower [ˋflaʊɚ]</t>
+  </si>
+  <si>
+    <t>joy [dʒɔɪ]、noise [nɔɪz]</t>
+  </si>
+  <si>
+    <t>tr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[ t ]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[ r ]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[ tʃ ]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[ t r ]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曲目 33.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>發音接近「測樂」</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>[ d ]</t>
-  </si>
-  <si>
-    <t>發短音的ㄉ</t>
-  </si>
-  <si>
-    <t>g、gg</t>
-  </si>
-  <si>
-    <t>[ g ]</t>
-  </si>
-  <si>
-    <t>發短音的ㄍ</t>
-  </si>
-  <si>
-    <t>th</t>
-  </si>
-  <si>
-    <t>[ ð ]</t>
-  </si>
-  <si>
-    <t>上下齒輕咬舌尖，吹氣同時振動聲帶</t>
-  </si>
-  <si>
-    <t>j、ge、dge、gi、gy</t>
-  </si>
-  <si>
-    <t>[ dʒ ]</t>
-  </si>
-  <si>
-    <t>舌面往上頂住上顎，堵住氣流並振動聲帶，發音接近ㄓ或ㄐ</t>
-  </si>
-  <si>
-    <t>l、ll</t>
-  </si>
-  <si>
-    <t>[ l ]</t>
-  </si>
-  <si>
-    <t>r、rr</t>
-  </si>
-  <si>
-    <t>[ r ]</t>
-  </si>
-  <si>
-    <t>y</t>
-  </si>
-  <si>
-    <t>[ j ]</t>
-  </si>
-  <si>
-    <t>發短音的ㄧㄝ</t>
-  </si>
-  <si>
-    <t>w、wh、o</t>
-  </si>
-  <si>
-    <t>[ w ]</t>
-  </si>
-  <si>
-    <t>發短音的ㄨ</t>
-  </si>
-  <si>
-    <t>p、pp</t>
-  </si>
-  <si>
-    <t>[ p ]</t>
-  </si>
-  <si>
-    <t>發ㄆ音</t>
-  </si>
-  <si>
-    <t>t、tt</t>
-  </si>
-  <si>
-    <t>[ t ]</t>
-  </si>
-  <si>
-    <t>c、k、ck、ch</t>
-  </si>
-  <si>
-    <t>[ k ]</t>
-  </si>
-  <si>
-    <t>發ㄎ音</t>
-  </si>
-  <si>
-    <t>h、wh</t>
-  </si>
-  <si>
-    <t>[ h ]</t>
-  </si>
-  <si>
-    <t>發ㄏ音</t>
-  </si>
-  <si>
-    <t>s、c、sc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[ d r ]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曲目 34.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>發音接近「居樂」</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>發音接近ㄘ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>[ s ]</t>
-  </si>
-  <si>
-    <t>發ㄙ音</t>
-  </si>
-  <si>
-    <t>c、s、sh、tion</t>
-  </si>
-  <si>
-    <t>[ ʃ ]</t>
-  </si>
-  <si>
-    <t>舌面輕觸上顎吹氣，發音接近ㄕ、ㄒ</t>
-  </si>
-  <si>
-    <t>mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>start</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>u、oo、ou</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[ ʊ ]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>u、o</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[ ʌ ]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a、o、e</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[ ə ]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>弱化音，發短音的ㄜ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>嘴形放鬆張開，先做ㄜ口型，再發短音的ㄨ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[ ɪ ]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[ i ]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>嘴形有 2 段變化，先做ㄚ口型，再發ㄞㄧ音</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>i、ie、igh、i_e</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[ aɪ ]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>oy、oi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>v、f</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下唇碰到上齒，吹氣同時振動聲帶，發音類似 / f /</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[ v ]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>z、s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[ z ]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>雙脣微啟，上下齒閉合，吹氣同時振動聲帶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sion、sure</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[ ʒ ]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>舌面往上輕觸上顎，吹氣同時振動聲帶，與 / ʃ / 發音口型相同</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>m、mm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[ m ]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>n、nn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[ n ]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ng、nk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[ ŋ ]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>舌尖平放，再從鼻腔發聲，發ㄥ音</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>f、fe、gh、ph</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[ f ]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下唇碰到上齒，透過唇齒縫隙吹氣，接近無聲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>th</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[ θ ]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上下齒輕咬舌尖，不振動聲帶吹氣，發音接近ㄙ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ch、tch、ture</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[ tʃ ]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>舌面頂住上顎，堵住氣流後發聲，與 / ʃ / 口型相同，發音接近ㄔ、ㄑ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;1&gt;一、母音音標 (17個)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;2&gt;單母音</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;2&gt;雙母音</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;1&gt;二、子音音標 (24個)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;2&gt;有聲子音</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;2&gt;無聲子音</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>曲目 03.mp3</t>
-  </si>
-  <si>
-    <t>曲目 04.mp3</t>
-  </si>
-  <si>
-    <t>曲目 05.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>曲目 06.mp3</t>
-  </si>
-  <si>
-    <t>曲目 07.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>曲目 08.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>曲目 20.mp3</t>
-  </si>
-  <si>
-    <t>曲目 21.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>曲目 26.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>曲目 28.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>曲目 32.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>曲目 11.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>曲目 12.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>曲目 13.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>曲目 14.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>曲目 15.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>曲目 18.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>曲目 19.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>曲目 23.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>曲目 24.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>曲目 25.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>曲目 27.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>曲目 30.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>曲目 31.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>發ㄊ音</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>曲目 39.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>曲目 41.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>曲目 44.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>曲目 46.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>曲目 49.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>曲目 52.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>曲目 54.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>曲目 56.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>曲目 59.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>曲目 61.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>曲目 64.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>曲目 66.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>曲目 68.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>曲目 70.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>曲目 73.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>曲目 75.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>曲目 77.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>嘴形有 2 段變化，發ㄛㄧ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>嘴形放鬆張開，發短音ㄜ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>舌尖頂住上齒齦後發聲，發音接近ㄌ，母音前發音接近ㄌ，母音後發音接近ㄛ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>嘴唇微微噘起，舌尖上揚並振動聲帶，發音接近ㄖ、ㄦ，母音前發音接近ㄖㄜ，母音後發音接近ㄦ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>雙唇緊閉，再從鼻腔發聲，發ㄇ音，母音前發音接近ㄇ，母音後發音接近ㄣ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>舌尖頂住上齒齦，再從鼻腔發聲，發音接近ㄋ、ㄣ，母音前發音接近ㄋ，母音後發音接近ㄣ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>音標</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>發長音的ㄧ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>單字範例</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>it [ɪt]</t>
-  </si>
-  <si>
-    <t>many [ˋmɛnɪ]、letter [ˋlɛtɚ]、pleasure [ˋplɛʒɚ]</t>
-  </si>
-  <si>
-    <t>plain [plen]、neighbor [ˋnebɚ]、play [ple]、prey [pre]、break [brek]、mate [met]</t>
-  </si>
-  <si>
-    <t>mad [mæd]</t>
-  </si>
-  <si>
-    <t>wash [wɑʃ]、stop [stɑp]</t>
-  </si>
-  <si>
-    <t>call [kɔl]、author [ˋɔθɚ]、law [lɔ]、bought [bɔt]</t>
-  </si>
-  <si>
-    <t>coat [kot]、poet [ˋpoɪɪt]、flow [flo]、although [ɔlˋðo]、phone [fon]</t>
-  </si>
-  <si>
-    <t>full [fʊl]、book [bʊk]、could [kʊd]</t>
-  </si>
-  <si>
-    <t>moon [mun]、suit [sut]、clue [klu]、through [θru]、chew [tʃu]、mute [mjut]</t>
-  </si>
-  <si>
-    <t>bug [bʌg]、color [ˋkʌlɚ]</t>
-  </si>
-  <si>
-    <t>ago [əˋgo]、together [təˋgɛðɚ]、calendar [ˋkæləndɚ]</t>
-  </si>
-  <si>
-    <t>better [ˋbɛtɚ]、familiar [fəˋmɪljɚ]、color [ˋkʌlɚ]、nature [ˋnetʃɚ]</t>
-  </si>
-  <si>
-    <t>bird [bɝd]、her [hɝ]、turn [tɝn]、learn [lɝn]</t>
-  </si>
-  <si>
-    <t>feed [fid]、tea [ti]、relief [rɪˋlif]、ceiling [ˋsilɪŋ]、these [ðiz]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>basic [ˋbesɪk]、bubble [ˋbʌb!]</t>
-  </si>
-  <si>
-    <t>dinner [ˋdɪnɚ]、addition [əˋdɪʃən]</t>
-  </si>
-  <si>
-    <t>grammar [ˋgræmɚ]、luggage [ˋlʌgɪdʒ]</t>
-  </si>
-  <si>
-    <t>vegetable [ˋvɛdʒtəb!]、of [ʌv]</t>
-  </si>
-  <si>
-    <t>zoo [zu]、pause [pɔz]</t>
-  </si>
-  <si>
-    <t>this [ðɪs]</t>
-  </si>
-  <si>
-    <t>television [ˋtɛlə͵vɪʒən]、pleasure [ˋplɛʒɚ]</t>
-  </si>
-  <si>
-    <t>enjoy [ɪnˋdʒɔɪ]、change [tʃendʒ]、judge [dʒʌdʒ]、apologize [əˋpɑlə͵dʒaɪz]、gym [dʒɪm]</t>
-  </si>
-  <si>
-    <t>lend [lɛnd]、fall [fɔl]</t>
-  </si>
-  <si>
-    <t>romantic [roˋmæntɪk]、mirror [ˋmɪrɚ]</t>
-  </si>
-  <si>
-    <t>moon [mun]、community [kəˋmjunətɪ]</t>
-  </si>
-  <si>
-    <t>clean [klin]、tennis [ˋtɛnɪs]</t>
-  </si>
-  <si>
-    <t>long [lɔŋ]、thank [θæŋk]</t>
-  </si>
-  <si>
-    <t>young [jʌŋ]</t>
-  </si>
-  <si>
-    <t>world [wɝld]、who [hu]、one [wʌn]</t>
-  </si>
-  <si>
-    <t>keep [kip]、application [ˋæplə͵keʃən]</t>
-  </si>
-  <si>
-    <t>table [ˋteb!]、letter [ˋlɛtɚ]</t>
-  </si>
-  <si>
-    <t>accept [əkˋsɛpt]、king [kɪŋ]、rock [rɑk]、schedule [ˋskɛdʒul] (*美式發音，多數讀 /skɛdʒul/ 或 /skɛdʒəl/)</t>
-  </si>
-  <si>
-    <t>heaven [ˋhɛvən]、when [hwɛn]</t>
-  </si>
-  <si>
-    <t>family [ˋfæməlɪ]、life [laɪf]、cough [kɔf]、phase [fez]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[ t s ]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曲目 35.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;2&gt;常見子音組合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>drink [drɪŋk]、drive [draɪv]、draw [drɔ]</t>
+  </si>
+  <si>
+    <r>
+      <t>pets [pɛts]、students [ˈstu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ː</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dənts]</t>
+    </r>
+  </si>
+  <si>
+    <t>tree [tri]、truck [trʌk]、train [tren]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>see [si]、city [ˋsɪtɪ]、school [skul]</t>
-  </si>
-  <si>
-    <t>health [hɛlθ]</t>
-  </si>
-  <si>
-    <t>special [ˋspɛʃəl]、sure [ʃʊr]、fish [fɪʃ]、action [ˋækʃən]</t>
-  </si>
-  <si>
-    <t>lunch [lʌntʃ]、catch [kætʃ]、adventure [ədˋvɛntʃɚ]</t>
-  </si>
-  <si>
-    <t>child [tʃaɪld]、tie [taɪ]、light [laɪt]、fire [faɪr]</t>
-  </si>
-  <si>
-    <t>loud [laʊd]、flower [ˋflaʊɚ]</t>
-  </si>
-  <si>
-    <t>joy [dʒɔɪ]、noise [nɔɪz]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1582,6 +1673,14 @@
       <color theme="1"/>
       <name val="新細明體"/>
       <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
@@ -1926,7 +2025,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
@@ -3055,10 +3154,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G60"/>
+  <dimension ref="A1:G67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D17" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24:G26"/>
+    <sheetView topLeftCell="A58" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F69" sqref="F69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -3071,12 +3170,12 @@
   <sheetData>
     <row r="1" spans="1:7" ht="19.8">
       <c r="A1" s="3" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="17.399999999999999">
       <c r="A3" s="4" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -3084,22 +3183,22 @@
         <v>241</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>243</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -3107,10 +3206,10 @@
         <v>245</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="D6" s="2">
         <v>17</v>
@@ -3122,7 +3221,7 @@
         <v>246</v>
       </c>
       <c r="G6" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -3130,10 +3229,10 @@
         <v>247</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="D7" s="2">
         <v>18</v>
@@ -3142,10 +3241,10 @@
         <v>19</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="G7" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3156,7 +3255,7 @@
         <v>249</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="D8" s="2">
         <v>15</v>
@@ -3168,7 +3267,7 @@
         <v>250</v>
       </c>
       <c r="G8" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -3179,7 +3278,7 @@
         <v>252</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="D9" s="2">
         <v>15</v>
@@ -3191,7 +3290,7 @@
         <v>253</v>
       </c>
       <c r="G9" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -3202,7 +3301,7 @@
         <v>255</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="D10" s="2">
         <v>19</v>
@@ -3214,7 +3313,7 @@
         <v>256</v>
       </c>
       <c r="G10" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -3225,7 +3324,7 @@
         <v>258</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="D11" s="2">
         <v>15</v>
@@ -3237,7 +3336,7 @@
         <v>259</v>
       </c>
       <c r="G11" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -3248,7 +3347,7 @@
         <v>261</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="D12" s="2">
         <v>15</v>
@@ -3260,7 +3359,7 @@
         <v>262</v>
       </c>
       <c r="G12" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -3271,7 +3370,7 @@
         <v>264</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="D13" s="2">
         <v>17</v>
@@ -3283,18 +3382,18 @@
         <v>265</v>
       </c>
       <c r="G13" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="2" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="D14" s="2">
         <v>14.5</v>
@@ -3303,10 +3402,10 @@
         <v>15.5</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="G14" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -3317,7 +3416,7 @@
         <v>267</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="D15" s="2">
         <v>18</v>
@@ -3329,18 +3428,18 @@
         <v>268</v>
       </c>
       <c r="G15" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="2" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="D16" s="2">
         <v>18</v>
@@ -3349,21 +3448,21 @@
         <v>19</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="G16" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="2" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="D17" s="2">
         <v>15</v>
@@ -3372,10 +3471,10 @@
         <v>16</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="G17" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -3386,7 +3485,7 @@
         <v>270</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="D18" s="2">
         <v>15</v>
@@ -3398,7 +3497,7 @@
         <v>271</v>
       </c>
       <c r="G18" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -3409,7 +3508,7 @@
         <v>273</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="D19" s="2">
         <v>15</v>
@@ -3421,7 +3520,7 @@
         <v>274</v>
       </c>
       <c r="G19" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -3431,7 +3530,7 @@
     </row>
     <row r="21" spans="1:7" ht="17.399999999999999">
       <c r="A21" s="4" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -3450,13 +3549,13 @@
         <v>242</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="F23" s="5" t="s">
         <v>243</v>
@@ -3467,13 +3566,13 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="6" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="D24" s="2">
         <v>18.5</v>
@@ -3482,10 +3581,10 @@
         <v>19.5</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="G24" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -3496,7 +3595,7 @@
         <v>276</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="D25" s="2">
         <v>18</v>
@@ -3508,18 +3607,18 @@
         <v>277</v>
       </c>
       <c r="G25" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>278</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="D26" s="2">
         <v>18.5</v>
@@ -3528,10 +3627,10 @@
         <v>19.5</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="G26" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -3541,7 +3640,7 @@
     </row>
     <row r="28" spans="1:7" ht="19.8">
       <c r="A28" s="3" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -3554,7 +3653,7 @@
     </row>
     <row r="30" spans="1:7" ht="17.399999999999999">
       <c r="A30" s="4" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -3573,13 +3672,13 @@
         <v>242</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="F32" s="5" t="s">
         <v>243</v>
@@ -3596,7 +3695,7 @@
         <v>280</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="D33" s="2">
         <v>17</v>
@@ -3608,7 +3707,7 @@
         <v>281</v>
       </c>
       <c r="G33" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -3616,10 +3715,10 @@
         <v>282</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>283</v>
+        <v>463</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="D34" s="2">
         <v>17</v>
@@ -3628,21 +3727,21 @@
         <v>18</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G34" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>286</v>
-      </c>
       <c r="C35" s="2" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="D35" s="2">
         <v>17</v>
@@ -3651,21 +3750,21 @@
         <v>18</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G35" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="2" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="D36" s="2">
         <v>17</v>
@@ -3674,21 +3773,21 @@
         <v>18</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="G36" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="2" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="D37" s="2">
         <v>17</v>
@@ -3697,21 +3796,21 @@
         <v>18</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="G37" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>289</v>
-      </c>
       <c r="C38" s="2" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="D38" s="2">
         <v>16</v>
@@ -3720,21 +3819,21 @@
         <v>18</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G38" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="32.4">
       <c r="A39" s="2" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="D39" s="2">
         <v>16</v>
@@ -3743,21 +3842,21 @@
         <v>17</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="G39" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="32.4">
       <c r="A40" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>292</v>
-      </c>
       <c r="C40" s="2" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="D40" s="2">
         <v>16</v>
@@ -3766,21 +3865,21 @@
         <v>17</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G40" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="32.4">
       <c r="A41" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>295</v>
-      </c>
       <c r="C41" s="2" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="D41" s="2">
         <v>17</v>
@@ -3789,21 +3888,21 @@
         <v>18</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="G41" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="32.4">
       <c r="A42" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>297</v>
+        <v>457</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="D42" s="2">
         <v>22.5</v>
@@ -3812,21 +3911,21 @@
         <v>23.5</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="G42" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="32.4">
       <c r="A43" s="2" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="D43" s="2">
         <v>17</v>
@@ -3835,21 +3934,21 @@
         <v>18</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="G43" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="32.4">
       <c r="A44" s="2" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="D44" s="2">
         <v>17</v>
@@ -3858,21 +3957,21 @@
         <v>18</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="G44" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="2" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="D45" s="2">
         <v>16</v>
@@ -3881,21 +3980,21 @@
         <v>17</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="G45" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="D46" s="2">
         <v>16</v>
@@ -3904,21 +4003,21 @@
         <v>17</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G46" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="D47" s="2">
         <v>16</v>
@@ -3927,10 +4026,10 @@
         <v>17</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G47" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -3940,7 +4039,7 @@
     </row>
     <row r="49" spans="1:7" ht="17.399999999999999">
       <c r="A49" s="4" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
@@ -3959,13 +4058,13 @@
         <v>242</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="F51" s="5" t="s">
         <v>243</v>
@@ -3976,13 +4075,13 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="D52" s="2">
         <v>17</v>
@@ -3991,21 +4090,21 @@
         <v>18</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G52" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>308</v>
+        <v>456</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="D53" s="2">
         <v>17</v>
@@ -4014,21 +4113,21 @@
         <v>18</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="G53" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="2" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="D54" s="2">
         <v>17</v>
@@ -4037,21 +4136,21 @@
         <v>18</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="G54" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="2" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="D55" s="2">
         <v>17</v>
@@ -4060,21 +4159,21 @@
         <v>18</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="G55" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="2" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="D56" s="2">
         <v>17</v>
@@ -4083,21 +4182,21 @@
         <v>18</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="G56" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="2" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>316</v>
+        <v>469</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="D57" s="2">
         <v>17</v>
@@ -4106,21 +4205,21 @@
         <v>18</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="G57" t="s">
-        <v>454</v>
+        <v>476</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="2" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="D58" s="2">
         <v>16</v>
@@ -4129,21 +4228,21 @@
         <v>17</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="G58" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="2" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D59" s="2">
         <v>16.5</v>
@@ -4152,21 +4251,21 @@
         <v>17.5</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="G59" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="32.4">
       <c r="A60" s="2" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>361</v>
+        <v>458</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="D60" s="2">
         <v>16</v>
@@ -4175,10 +4274,107 @@
         <v>17</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="G60" t="s">
-        <v>457</v>
+        <v>451</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="17.399999999999999">
+      <c r="A62" s="4" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="G64" s="5" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" t="s">
+        <v>455</v>
+      </c>
+      <c r="B65" t="s">
+        <v>459</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="D65" s="2">
+        <v>16</v>
+      </c>
+      <c r="E65" s="2">
+        <v>17</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" t="s">
+        <v>462</v>
+      </c>
+      <c r="B66" t="s">
+        <v>464</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="D66" s="2">
+        <v>16</v>
+      </c>
+      <c r="E66" s="2">
+        <v>17</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" t="s">
+        <v>467</v>
+      </c>
+      <c r="B67" t="s">
+        <v>470</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="D67" s="2">
+        <v>16</v>
+      </c>
+      <c r="E67" s="2">
+        <v>17</v>
+      </c>
+      <c r="F67" t="s">
+        <v>468</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>474</v>
       </c>
     </row>
   </sheetData>
@@ -4190,63 +4386,14 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A9"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
-  <cols>
-    <col min="1" max="1" width="104.44140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" t="s">
-        <v>457</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/doc/table.xlsx
+++ b/doc/table.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="12" windowWidth="19200" windowHeight="11868"/>
+    <workbookView xWindow="0" yWindow="12" windowWidth="19200" windowHeight="11868" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="不規則動詞" sheetId="1" r:id="rId1"/>
@@ -819,18 +819,12 @@
     <t>[ æ ]</t>
   </si>
   <si>
-    <t>嘴形往下張大，發ㄝ</t>
-  </si>
-  <si>
     <t>a、o</t>
   </si>
   <si>
     <t>[ ɑ ]</t>
   </si>
   <si>
-    <t>嘴形上下張大，發短音的ㄚ</t>
-  </si>
-  <si>
     <t>al、au、aw、ou</t>
   </si>
   <si>
@@ -873,9 +867,6 @@
     <t>[ ɝ ]</t>
   </si>
   <si>
-    <t>舌尖往後上方捲，發長音的ㄦ</t>
-  </si>
-  <si>
     <t>ou、ow</t>
   </si>
   <si>
@@ -918,18 +909,12 @@
     <t>[ ð ]</t>
   </si>
   <si>
-    <t>上下齒輕咬舌尖，吹氣同時振動聲帶</t>
-  </si>
-  <si>
     <t>j、ge、dge、gi、gy</t>
   </si>
   <si>
     <t>[ dʒ ]</t>
   </si>
   <si>
-    <t>舌面往上頂住上顎，堵住氣流並振動聲帶，發音接近ㄓ或ㄐ</t>
-  </si>
-  <si>
     <t>l、ll</t>
   </si>
   <si>
@@ -945,18 +930,12 @@
     <t>[ j ]</t>
   </si>
   <si>
-    <t>發短音的ㄧㄝ</t>
-  </si>
-  <si>
     <t>w、wh、o</t>
   </si>
   <si>
     <t>[ w ]</t>
   </si>
   <si>
-    <t>發短音的ㄨ</t>
-  </si>
-  <si>
     <t>p、pp</t>
   </si>
   <si>
@@ -990,18 +969,12 @@
     <t>s、c、sc</t>
   </si>
   <si>
-    <t>發ㄙ音</t>
-  </si>
-  <si>
     <t>c、s、sh、tion</t>
   </si>
   <si>
     <t>[ ʃ ]</t>
   </si>
   <si>
-    <t>舌面輕觸上顎吹氣，發音接近ㄕ、ㄒ</t>
-  </si>
-  <si>
     <t>mp3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1090,10 +1063,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>雙脣微啟，上下齒閉合，吹氣同時振動聲帶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>sion、sure</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1102,10 +1071,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>舌面往上輕觸上顎，吹氣同時振動聲帶，與 / ʃ / 發音口型相同</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>m、mm</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1130,10 +1095,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>舌尖平放，再從鼻腔發聲，發ㄥ音</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>f、fe、gh、ph</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1142,10 +1103,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>下唇碰到上齒，透過唇齒縫隙吹氣，接近無聲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>th</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1154,18 +1111,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>上下齒輕咬舌尖，不振動聲帶吹氣，發音接近ㄙ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ch、tch、ture</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>舌面頂住上顎，堵住氣流後發聲，與 / ʃ / 口型相同，發音接近ㄔ、ㄑ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>&lt;1&gt;一、母音音標 (17個)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1355,26 +1304,6 @@
   </si>
   <si>
     <t>嘴形有 2 段變化，發ㄛㄧ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>嘴形放鬆張開，發短音ㄜ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>舌尖頂住上齒齦後發聲，發音接近ㄌ，母音前發音接近ㄌ，母音後發音接近ㄛ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>嘴唇微微噘起，舌尖上揚並振動聲帶，發音接近ㄖ、ㄦ，母音前發音接近ㄖㄜ，母音後發音接近ㄦ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>雙唇緊閉，再從鼻腔發聲，發ㄇ音，母音前發音接近ㄇ，母音後發音接近ㄣ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>舌尖頂住上齒齦，再從鼻腔發聲，發音接近ㄋ、ㄣ，母音前發音接近ㄋ，母音後發音接近ㄣ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1620,12 +1549,92 @@
     <t>see [si]、city [ˋsɪtɪ]、school [skul]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>舌尖頂住上齒齦後發聲，母音前發音接近ㄌ，母音後發音接近ㄛ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上下齒輕咬舌尖，吹氣同時振動聲帶，發音接近ㄌ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>舌尖頂住上齒齦，再從鼻腔發聲，母音前發音接近ㄋ，母音後發音接近ㄣ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雙唇緊閉，再從鼻腔發聲，母音前發音接近ㄇ，母音後發音接近ㄣ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>舌尖平放，再從鼻腔發聲，發ㄥˋ音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>發ㄙ音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>舌面輕觸上顎吹氣，發音接近「噓ㄦ」</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>舌面頂住上顎，堵住氣流後發聲，與 / ʃ / 口型相同，發音接近ㄑㄦ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雙脣微啟，上下齒閉合，吹氣同時振動聲帶，發音接近ㄖ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>舌面往上輕觸上顎，吹氣同時振動聲帶，與 / ʃ / 發音口型相同，發音接近ㄖㄦ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>舌面往上頂住上顎，堵住氣流並振動聲帶，發音接近ㄐㄧㄦ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上下齒輕咬舌尖，不振動聲帶吹氣，發音接近ㄙ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下唇碰到上齒，透過唇齒縫隙吹氣，接近無聲，發音接近ㄈㄜ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘴形上下張大，發短音的ㄚ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>發短音的ㄨ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘴唇微微噘起，舌尖上揚並振動聲帶，母音前發音接近ㄖㄨㄦ，母音後發音接近ㄦ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>發短音的ㄧㄝˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘴形放鬆張開，發短音ㄜˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>舌尖往後上方捲，發長音的ㄦˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘴形往下張大，發ㄝˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1673,14 +1682,6 @@
       <color theme="1"/>
       <name val="新細明體"/>
       <family val="1"/>
-      <charset val="136"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="新細明體"/>
-      <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
@@ -2025,7 +2026,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
@@ -3156,8 +3157,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G67"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F69" sqref="F69"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -3170,12 +3171,12 @@
   <sheetData>
     <row r="1" spans="1:7" ht="19.8">
       <c r="A1" s="3" t="s">
-        <v>358</v>
+        <v>343</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="17.399999999999999">
       <c r="A3" s="4" t="s">
-        <v>359</v>
+        <v>344</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -3183,22 +3184,22 @@
         <v>241</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>412</v>
+        <v>392</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>243</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>414</v>
+        <v>394</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -3206,10 +3207,10 @@
         <v>245</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>390</v>
+        <v>375</v>
       </c>
       <c r="D6" s="2">
         <v>17</v>
@@ -3221,7 +3222,7 @@
         <v>246</v>
       </c>
       <c r="G6" t="s">
-        <v>415</v>
+        <v>395</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -3229,10 +3230,10 @@
         <v>247</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>389</v>
+        <v>374</v>
       </c>
       <c r="D7" s="2">
         <v>18</v>
@@ -3241,10 +3242,10 @@
         <v>19</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>413</v>
+        <v>393</v>
       </c>
       <c r="G7" t="s">
-        <v>428</v>
+        <v>408</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3255,7 +3256,7 @@
         <v>249</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
       <c r="D8" s="2">
         <v>15</v>
@@ -3267,7 +3268,7 @@
         <v>250</v>
       </c>
       <c r="G8" t="s">
-        <v>416</v>
+        <v>396</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -3278,7 +3279,7 @@
         <v>252</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>391</v>
+        <v>376</v>
       </c>
       <c r="D9" s="2">
         <v>15</v>
@@ -3290,7 +3291,7 @@
         <v>253</v>
       </c>
       <c r="G9" t="s">
-        <v>417</v>
+        <v>397</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -3301,7 +3302,7 @@
         <v>255</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>393</v>
+        <v>378</v>
       </c>
       <c r="D10" s="2">
         <v>19</v>
@@ -3310,21 +3311,21 @@
         <v>20</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>256</v>
+        <v>476</v>
       </c>
       <c r="G10" t="s">
-        <v>418</v>
+        <v>398</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>258</v>
-      </c>
       <c r="C11" s="2" t="s">
-        <v>394</v>
+        <v>379</v>
       </c>
       <c r="D11" s="2">
         <v>15</v>
@@ -3333,21 +3334,21 @@
         <v>16</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>259</v>
+        <v>470</v>
       </c>
       <c r="G11" t="s">
-        <v>419</v>
+        <v>399</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>395</v>
+        <v>380</v>
       </c>
       <c r="D12" s="2">
         <v>15</v>
@@ -3356,21 +3357,21 @@
         <v>16</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G12" t="s">
-        <v>420</v>
+        <v>400</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>396</v>
+        <v>381</v>
       </c>
       <c r="D13" s="2">
         <v>17</v>
@@ -3379,21 +3380,21 @@
         <v>18</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="G13" t="s">
-        <v>421</v>
+        <v>401</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="2" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>397</v>
+        <v>382</v>
       </c>
       <c r="D14" s="2">
         <v>14.5</v>
@@ -3402,21 +3403,21 @@
         <v>15.5</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="G14" t="s">
-        <v>422</v>
+        <v>402</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>398</v>
+        <v>383</v>
       </c>
       <c r="D15" s="2">
         <v>18</v>
@@ -3425,21 +3426,21 @@
         <v>19</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G15" t="s">
-        <v>423</v>
+        <v>403</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="2" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>402</v>
+        <v>387</v>
       </c>
       <c r="D16" s="2">
         <v>18</v>
@@ -3448,21 +3449,21 @@
         <v>19</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>407</v>
+        <v>474</v>
       </c>
       <c r="G16" t="s">
-        <v>424</v>
+        <v>404</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="2" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>399</v>
+        <v>384</v>
       </c>
       <c r="D17" s="2">
         <v>15</v>
@@ -3471,21 +3472,21 @@
         <v>16</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="G17" t="s">
-        <v>425</v>
+        <v>405</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>400</v>
+        <v>385</v>
       </c>
       <c r="D18" s="2">
         <v>15</v>
@@ -3494,21 +3495,21 @@
         <v>16</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G18" t="s">
-        <v>426</v>
+        <v>406</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>401</v>
+        <v>386</v>
       </c>
       <c r="D19" s="2">
         <v>15</v>
@@ -3517,10 +3518,10 @@
         <v>16</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>274</v>
+        <v>475</v>
       </c>
       <c r="G19" t="s">
-        <v>427</v>
+        <v>407</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -3530,7 +3531,7 @@
     </row>
     <row r="21" spans="1:7" ht="17.399999999999999">
       <c r="A21" s="4" t="s">
-        <v>360</v>
+        <v>345</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -3549,13 +3550,13 @@
         <v>242</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="F23" s="5" t="s">
         <v>243</v>
@@ -3566,13 +3567,13 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="6" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>403</v>
+        <v>388</v>
       </c>
       <c r="D24" s="2">
         <v>18.5</v>
@@ -3581,21 +3582,21 @@
         <v>19.5</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="G24" t="s">
-        <v>452</v>
+        <v>432</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="2" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>404</v>
+        <v>389</v>
       </c>
       <c r="D25" s="2">
         <v>18</v>
@@ -3604,21 +3605,21 @@
         <v>19</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="G25" t="s">
-        <v>453</v>
+        <v>433</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="2" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>405</v>
+        <v>390</v>
       </c>
       <c r="D26" s="2">
         <v>18.5</v>
@@ -3627,10 +3628,10 @@
         <v>19.5</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>406</v>
+        <v>391</v>
       </c>
       <c r="G26" t="s">
-        <v>454</v>
+        <v>434</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -3640,7 +3641,7 @@
     </row>
     <row r="28" spans="1:7" ht="19.8">
       <c r="A28" s="3" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -3653,7 +3654,7 @@
     </row>
     <row r="30" spans="1:7" ht="17.399999999999999">
       <c r="A30" s="4" t="s">
-        <v>362</v>
+        <v>347</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -3672,13 +3673,13 @@
         <v>242</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="F32" s="5" t="s">
         <v>243</v>
@@ -3689,13 +3690,13 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="2" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>364</v>
+        <v>349</v>
       </c>
       <c r="D33" s="2">
         <v>17</v>
@@ -3704,21 +3705,21 @@
         <v>18</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="G33" t="s">
-        <v>429</v>
+        <v>409</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="2" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>463</v>
+        <v>443</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="D34" s="2">
         <v>17</v>
@@ -3727,21 +3728,21 @@
         <v>18</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="G34" t="s">
-        <v>430</v>
+        <v>410</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="2" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>367</v>
+        <v>352</v>
       </c>
       <c r="D35" s="2">
         <v>17</v>
@@ -3750,21 +3751,21 @@
         <v>18</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="G35" t="s">
-        <v>431</v>
+        <v>411</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="2" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>370</v>
+        <v>355</v>
       </c>
       <c r="D36" s="2">
         <v>17</v>
@@ -3773,21 +3774,21 @@
         <v>18</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="G36" t="s">
-        <v>432</v>
+        <v>412</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="2" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>371</v>
+        <v>356</v>
       </c>
       <c r="D37" s="2">
         <v>17</v>
@@ -3796,21 +3797,21 @@
         <v>18</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>339</v>
+        <v>465</v>
       </c>
       <c r="G37" t="s">
-        <v>433</v>
+        <v>413</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="2" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>372</v>
+        <v>357</v>
       </c>
       <c r="D38" s="2">
         <v>16</v>
@@ -3819,21 +3820,21 @@
         <v>18</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>289</v>
+        <v>458</v>
       </c>
       <c r="G38" t="s">
-        <v>434</v>
+        <v>414</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="32.4">
       <c r="A39" s="2" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>373</v>
+        <v>358</v>
       </c>
       <c r="D39" s="2">
         <v>16</v>
@@ -3842,21 +3843,21 @@
         <v>17</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>342</v>
+        <v>466</v>
       </c>
       <c r="G39" t="s">
-        <v>435</v>
+        <v>415</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="32.4">
       <c r="A40" s="2" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>374</v>
+        <v>359</v>
       </c>
       <c r="D40" s="2">
         <v>16</v>
@@ -3865,21 +3866,21 @@
         <v>17</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>292</v>
+        <v>467</v>
       </c>
       <c r="G40" t="s">
-        <v>436</v>
+        <v>416</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="32.4">
       <c r="A41" s="2" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>375</v>
+        <v>360</v>
       </c>
       <c r="D41" s="2">
         <v>17</v>
@@ -3888,21 +3889,21 @@
         <v>18</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>408</v>
+        <v>457</v>
       </c>
       <c r="G41" t="s">
-        <v>437</v>
+        <v>417</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="32.4">
       <c r="A42" s="2" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>457</v>
+        <v>437</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>379</v>
+        <v>364</v>
       </c>
       <c r="D42" s="2">
         <v>22.5</v>
@@ -3911,21 +3912,21 @@
         <v>23.5</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>409</v>
+        <v>472</v>
       </c>
       <c r="G42" t="s">
-        <v>438</v>
+        <v>418</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="32.4">
       <c r="A43" s="2" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>376</v>
+        <v>361</v>
       </c>
       <c r="D43" s="2">
         <v>17</v>
@@ -3934,21 +3935,21 @@
         <v>18</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>410</v>
+        <v>460</v>
       </c>
       <c r="G43" t="s">
-        <v>439</v>
+        <v>419</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="32.4">
       <c r="A44" s="2" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>377</v>
+        <v>362</v>
       </c>
       <c r="D44" s="2">
         <v>17</v>
@@ -3957,21 +3958,21 @@
         <v>18</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>411</v>
+        <v>459</v>
       </c>
       <c r="G44" t="s">
-        <v>440</v>
+        <v>420</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="2" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>386</v>
+        <v>371</v>
       </c>
       <c r="D45" s="2">
         <v>16</v>
@@ -3980,21 +3981,21 @@
         <v>17</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>349</v>
+        <v>461</v>
       </c>
       <c r="G45" t="s">
-        <v>441</v>
+        <v>421</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="2" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>382</v>
+        <v>367</v>
       </c>
       <c r="D46" s="2">
         <v>16</v>
@@ -4003,21 +4004,21 @@
         <v>17</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>298</v>
+        <v>473</v>
       </c>
       <c r="G46" t="s">
-        <v>442</v>
+        <v>422</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="2" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>383</v>
+        <v>368</v>
       </c>
       <c r="D47" s="2">
         <v>16</v>
@@ -4026,10 +4027,10 @@
         <v>17</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>301</v>
+        <v>471</v>
       </c>
       <c r="G47" t="s">
-        <v>443</v>
+        <v>423</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -4039,7 +4040,7 @@
     </row>
     <row r="49" spans="1:7" ht="17.399999999999999">
       <c r="A49" s="4" t="s">
-        <v>363</v>
+        <v>348</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
@@ -4058,13 +4059,13 @@
         <v>242</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="F51" s="5" t="s">
         <v>243</v>
@@ -4075,13 +4076,13 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="2" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>378</v>
+        <v>363</v>
       </c>
       <c r="D52" s="2">
         <v>17</v>
@@ -4090,21 +4091,21 @@
         <v>18</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="G52" t="s">
-        <v>444</v>
+        <v>424</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="2" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>456</v>
+        <v>436</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>381</v>
+        <v>366</v>
       </c>
       <c r="D53" s="2">
         <v>17</v>
@@ -4113,21 +4114,21 @@
         <v>18</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>388</v>
+        <v>373</v>
       </c>
       <c r="G53" t="s">
-        <v>445</v>
+        <v>425</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="2" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>369</v>
+        <v>354</v>
       </c>
       <c r="D54" s="2">
         <v>17</v>
@@ -4136,21 +4137,21 @@
         <v>18</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="G54" t="s">
-        <v>446</v>
+        <v>426</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="2" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>368</v>
+        <v>353</v>
       </c>
       <c r="D55" s="2">
         <v>17</v>
@@ -4159,21 +4160,21 @@
         <v>18</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="G55" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="32.4">
       <c r="A56" s="2" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="B56" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C56" s="2" t="s">
         <v>351</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>366</v>
       </c>
       <c r="D56" s="2">
         <v>17</v>
@@ -4182,21 +4183,21 @@
         <v>18</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>352</v>
+        <v>469</v>
       </c>
       <c r="G56" t="s">
-        <v>448</v>
+        <v>428</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="2" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>469</v>
+        <v>449</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>380</v>
+        <v>365</v>
       </c>
       <c r="D57" s="2">
         <v>17</v>
@@ -4205,21 +4206,21 @@
         <v>18</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>313</v>
+        <v>462</v>
       </c>
       <c r="G57" t="s">
-        <v>476</v>
+        <v>456</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="2" t="s">
-        <v>353</v>
+        <v>340</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>354</v>
+        <v>341</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>384</v>
+        <v>369</v>
       </c>
       <c r="D58" s="2">
         <v>16</v>
@@ -4228,21 +4229,21 @@
         <v>17</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>355</v>
+        <v>468</v>
       </c>
       <c r="G58" t="s">
-        <v>449</v>
+        <v>429</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="2" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>385</v>
+        <v>370</v>
       </c>
       <c r="D59" s="2">
         <v>16.5</v>
@@ -4251,21 +4252,21 @@
         <v>17.5</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>316</v>
+        <v>463</v>
       </c>
       <c r="G59" t="s">
-        <v>450</v>
+        <v>430</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="32.4">
       <c r="A60" s="2" t="s">
-        <v>356</v>
+        <v>342</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>458</v>
+        <v>438</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>387</v>
+        <v>372</v>
       </c>
       <c r="D60" s="2">
         <v>16</v>
@@ -4274,15 +4275,15 @@
         <v>17</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>357</v>
+        <v>464</v>
       </c>
       <c r="G60" t="s">
-        <v>451</v>
+        <v>431</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="17.399999999999999">
       <c r="A62" s="4" t="s">
-        <v>472</v>
+        <v>452</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -4293,13 +4294,13 @@
         <v>242</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="F64" s="5" t="s">
         <v>243</v>
@@ -4310,13 +4311,13 @@
     </row>
     <row r="65" spans="1:7">
       <c r="A65" t="s">
-        <v>455</v>
+        <v>435</v>
       </c>
       <c r="B65" t="s">
-        <v>459</v>
+        <v>439</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>460</v>
+        <v>440</v>
       </c>
       <c r="D65" s="2">
         <v>16</v>
@@ -4325,21 +4326,21 @@
         <v>17</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>461</v>
+        <v>441</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>475</v>
+        <v>455</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" t="s">
-        <v>462</v>
+        <v>442</v>
       </c>
       <c r="B66" t="s">
-        <v>464</v>
+        <v>444</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>465</v>
+        <v>445</v>
       </c>
       <c r="D66" s="2">
         <v>16</v>
@@ -4348,21 +4349,21 @@
         <v>17</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>466</v>
+        <v>446</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>473</v>
+        <v>453</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" t="s">
-        <v>467</v>
+        <v>447</v>
       </c>
       <c r="B67" t="s">
-        <v>470</v>
+        <v>450</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>471</v>
+        <v>451</v>
       </c>
       <c r="D67" s="2">
         <v>16</v>
@@ -4371,10 +4372,10 @@
         <v>17</v>
       </c>
       <c r="F67" t="s">
-        <v>468</v>
+        <v>448</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>474</v>
+        <v>454</v>
       </c>
     </row>
   </sheetData>

--- a/doc/table.xlsx
+++ b/doc/table.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="476">
   <si>
     <t>主格</t>
   </si>
@@ -786,24 +786,12 @@
     <t>單字範例</t>
   </si>
   <si>
-    <t>i</t>
-  </si>
-  <si>
     <t>發短音的ㄧ</t>
   </si>
   <si>
-    <t>ee、ea、ie、ei、ey、e_e</t>
-  </si>
-  <si>
     <t>a、e、ea</t>
   </si>
   <si>
-    <t>[ ɛ ]</t>
-  </si>
-  <si>
-    <t>嘴形向左右拉，發短音的ㄝ</t>
-  </si>
-  <si>
     <t>ai、ei、ay、ey、ea、a_e</t>
   </si>
   <si>
@@ -873,9 +861,6 @@
     <t>[ aʊ ]</t>
   </si>
   <si>
-    <t>嘴形有 2 段變化，發ㄚㄨ</t>
-  </si>
-  <si>
     <t>[ ɔɪ ]</t>
   </si>
   <si>
@@ -1027,10 +1012,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>嘴形有 2 段變化，先做ㄚ口型，再發ㄞㄧ音</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>i、ie、igh、i_e</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1063,10 +1044,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>sion、sure</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[ ʒ ]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1303,10 +1280,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>嘴形有 2 段變化，發ㄛㄧ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>音標</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1319,9 +1292,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>it [ɪt]</t>
-  </si>
-  <si>
     <t>many [ˋmɛnɪ]、letter [ˋlɛtɚ]、pleasure [ˋplɛʒɚ]</t>
   </si>
   <si>
@@ -1358,10 +1328,6 @@
     <t>bird [bɝd]、her [hɝ]、turn [tɝn]、learn [lɝn]</t>
   </si>
   <si>
-    <t>feed [fid]、tea [ti]、relief [rɪˋlif]、ceiling [ˋsilɪŋ]、these [ðiz]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>basic [ˋbesɪk]、bubble [ˋbʌb!]</t>
   </si>
   <si>
@@ -1413,9 +1379,6 @@
     <t>table [ˋteb!]、letter [ˋlɛtɚ]</t>
   </si>
   <si>
-    <t>accept [əkˋsɛpt]、king [kɪŋ]、rock [rɑk]、schedule [ˋskɛdʒul] (*美式發音，多數讀 /skɛdʒul/ 或 /skɛdʒəl/)</t>
-  </si>
-  <si>
     <t>heaven [ˋhɛvən]、when [hwɛn]</t>
   </si>
   <si>
@@ -1464,10 +1427,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>發音接近「測樂」</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>dr</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1481,10 +1440,6 @@
   </si>
   <si>
     <t>曲目 34.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>發音接近「居樂」</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1554,46 +1509,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>上下齒輕咬舌尖，吹氣同時振動聲帶，發音接近ㄌ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>舌尖頂住上齒齦，再從鼻腔發聲，母音前發音接近ㄋ，母音後發音接近ㄣ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>雙唇緊閉，再從鼻腔發聲，母音前發音接近ㄇ，母音後發音接近ㄣ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>舌尖平放，再從鼻腔發聲，發ㄥˋ音</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>發ㄙ音</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>舌面輕觸上顎吹氣，發音接近「噓ㄦ」</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>舌面頂住上顎，堵住氣流後發聲，與 / ʃ / 口型相同，發音接近ㄑㄦ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>雙脣微啟，上下齒閉合，吹氣同時振動聲帶，發音接近ㄖ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>舌面往上輕觸上顎，吹氣同時振動聲帶，與 / ʃ / 發音口型相同，發音接近ㄖㄦ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>舌面往上頂住上顎，堵住氣流並振動聲帶，發音接近ㄐㄧㄦ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>上下齒輕咬舌尖，不振動聲帶吹氣，發音接近ㄙ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1614,10 +1541,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>發短音的ㄧㄝˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>嘴形放鬆張開，發短音ㄜˋ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1627,6 +1550,86 @@
   </si>
   <si>
     <t>嘴形往下張大，發ㄝˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>母音前發音接近ㄇ，母音後發音接近雙唇緊閉發 m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>發短音的ㄧㄝ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>si、su、ge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>舌面往上輕觸上顎，吹氣同時振動聲帶，與 / ʃ / 發音口型相同，發音接近ㄓ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>舌尖平放，再從鼻腔發聲，發ㄣˋ音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘴形向左右拉，發短音的ㄝ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>舌面往上頂住上顎，堵住氣流並振動聲帶，發音接近ㄐㄧ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>舌面頂住上顎，堵住氣流後發聲，與 / ʃ / 口型相同，發音接近ㄑㄩ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>舌面輕觸上顎吹氣，發音接近ㄒㄩ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>發音接近ㄔㄨ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>發音接近ㄓㄨ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上下齒輕咬舌尖，吹氣同時振動聲帶，發音接近ㄌㄜ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘴形有 2 段變化，發ㄠˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘴形有 2 段變化，發ㄡㄧ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ee、ea、ie、ei、ey、e_e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i、y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>feed [fid]、tea [ti]、relief [rɪˋlif]、ceiling [ˋsilɪŋ]、these [ðiz]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[ ɛ ]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>it [ɪt]、twenty[ˋtwɛntɪ]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accept [əkˋsɛpt]、king [kɪŋ]、rock [rɑk]、schedule [ˋskɛdʒul]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3157,8 +3160,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F71" sqref="F71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -3171,12 +3174,12 @@
   <sheetData>
     <row r="1" spans="1:7" ht="19.8">
       <c r="A1" s="3" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="17.399999999999999">
       <c r="A3" s="4" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -3184,33 +3187,33 @@
         <v>241</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>243</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="2" t="s">
-        <v>245</v>
+        <v>471</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="D6" s="2">
         <v>17</v>
@@ -3219,21 +3222,21 @@
         <v>18</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G6" t="s">
-        <v>395</v>
+        <v>474</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="2" t="s">
-        <v>247</v>
+        <v>470</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="D7" s="2">
         <v>18</v>
@@ -3242,21 +3245,21 @@
         <v>19</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="G7" t="s">
-        <v>408</v>
+        <v>472</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>249</v>
+        <v>473</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="D8" s="2">
         <v>15</v>
@@ -3265,21 +3268,21 @@
         <v>16</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>250</v>
+        <v>461</v>
       </c>
       <c r="G8" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="D9" s="2">
         <v>15</v>
@@ -3288,21 +3291,21 @@
         <v>16</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="G9" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="2" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="D10" s="2">
         <v>19</v>
@@ -3311,21 +3314,21 @@
         <v>20</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>476</v>
+        <v>455</v>
       </c>
       <c r="G10" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="2" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="D11" s="2">
         <v>15</v>
@@ -3334,21 +3337,21 @@
         <v>16</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>470</v>
+        <v>450</v>
       </c>
       <c r="G11" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="2" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="D12" s="2">
         <v>15</v>
@@ -3357,21 +3360,21 @@
         <v>16</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="G12" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="2" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="D13" s="2">
         <v>17</v>
@@ -3380,21 +3383,21 @@
         <v>18</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="G13" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="2" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="D14" s="2">
         <v>14.5</v>
@@ -3403,21 +3406,21 @@
         <v>15.5</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="G14" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="2" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="D15" s="2">
         <v>18</v>
@@ -3426,21 +3429,21 @@
         <v>19</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="G15" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="2" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="D16" s="2">
         <v>18</v>
@@ -3449,21 +3452,21 @@
         <v>19</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>474</v>
+        <v>453</v>
       </c>
       <c r="G16" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="2" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="D17" s="2">
         <v>15</v>
@@ -3472,21 +3475,21 @@
         <v>16</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="G17" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="2" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="D18" s="2">
         <v>15</v>
@@ -3495,21 +3498,21 @@
         <v>16</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="G18" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="2" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="D19" s="2">
         <v>15</v>
@@ -3518,10 +3521,10 @@
         <v>16</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>475</v>
+        <v>454</v>
       </c>
       <c r="G19" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -3531,7 +3534,7 @@
     </row>
     <row r="21" spans="1:7" ht="17.399999999999999">
       <c r="A21" s="4" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -3550,13 +3553,13 @@
         <v>242</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="F23" s="5" t="s">
         <v>243</v>
@@ -3567,13 +3570,13 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="6" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="D24" s="2">
         <v>18.5</v>
@@ -3581,22 +3584,22 @@
       <c r="E24" s="2">
         <v>19.5</v>
       </c>
-      <c r="F24" s="6" t="s">
-        <v>321</v>
+      <c r="F24" s="6">
+        <v>4</v>
       </c>
       <c r="G24" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="2" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="D25" s="2">
         <v>18</v>
@@ -3605,21 +3608,21 @@
         <v>19</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>274</v>
+        <v>468</v>
       </c>
       <c r="G25" t="s">
-        <v>433</v>
+        <v>422</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="2" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="D26" s="2">
         <v>18.5</v>
@@ -3628,10 +3631,10 @@
         <v>19.5</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>391</v>
+        <v>469</v>
       </c>
       <c r="G26" t="s">
-        <v>434</v>
+        <v>423</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -3641,7 +3644,7 @@
     </row>
     <row r="28" spans="1:7" ht="19.8">
       <c r="A28" s="3" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -3654,7 +3657,7 @@
     </row>
     <row r="30" spans="1:7" ht="17.399999999999999">
       <c r="A30" s="4" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -3673,13 +3676,13 @@
         <v>242</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="F32" s="5" t="s">
         <v>243</v>
@@ -3690,13 +3693,13 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="2" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="D33" s="2">
         <v>17</v>
@@ -3705,21 +3708,21 @@
         <v>18</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="G33" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="2" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="D34" s="2">
         <v>17</v>
@@ -3728,21 +3731,21 @@
         <v>18</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="G34" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="2" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="D35" s="2">
         <v>17</v>
@@ -3751,21 +3754,21 @@
         <v>18</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="G35" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="2" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="D36" s="2">
         <v>17</v>
@@ -3774,21 +3777,21 @@
         <v>18</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="G36" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="2" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="D37" s="2">
         <v>17</v>
@@ -3797,21 +3800,21 @@
         <v>18</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>465</v>
+        <v>447</v>
       </c>
       <c r="G37" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="2" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="D38" s="2">
         <v>16</v>
@@ -3820,21 +3823,21 @@
         <v>18</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>458</v>
+        <v>467</v>
       </c>
       <c r="G38" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="32.4">
       <c r="A39" s="2" t="s">
-        <v>330</v>
+        <v>458</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="D39" s="2">
         <v>16</v>
@@ -3843,21 +3846,21 @@
         <v>17</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="G39" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="32.4">
       <c r="A40" s="2" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="D40" s="2">
         <v>16</v>
@@ -3866,21 +3869,21 @@
         <v>17</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="G40" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="32.4">
       <c r="A41" s="2" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="D41" s="2">
         <v>17</v>
@@ -3889,21 +3892,21 @@
         <v>18</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>457</v>
+        <v>444</v>
       </c>
       <c r="G41" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="32.4">
       <c r="A42" s="2" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>437</v>
+        <v>426</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="D42" s="2">
         <v>22.5</v>
@@ -3912,21 +3915,21 @@
         <v>23.5</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>472</v>
+        <v>452</v>
       </c>
       <c r="G42" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="32.4">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="2" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="D43" s="2">
         <v>17</v>
@@ -3935,21 +3938,21 @@
         <v>18</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="G43" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="32.4">
       <c r="A44" s="2" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="D44" s="2">
         <v>17</v>
@@ -3958,21 +3961,21 @@
         <v>18</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>459</v>
+        <v>445</v>
       </c>
       <c r="G44" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="2" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="D45" s="2">
         <v>16</v>
@@ -3981,21 +3984,21 @@
         <v>17</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="G45" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="2" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="D46" s="2">
         <v>16</v>
@@ -4004,21 +4007,21 @@
         <v>17</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>473</v>
+        <v>457</v>
       </c>
       <c r="G46" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="2" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="D47" s="2">
         <v>16</v>
@@ -4027,10 +4030,10 @@
         <v>17</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>471</v>
+        <v>451</v>
       </c>
       <c r="G47" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -4040,7 +4043,7 @@
     </row>
     <row r="49" spans="1:7" ht="17.399999999999999">
       <c r="A49" s="4" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
@@ -4059,13 +4062,13 @@
         <v>242</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="F51" s="5" t="s">
         <v>243</v>
@@ -4076,13 +4079,13 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="2" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="D52" s="2">
         <v>17</v>
@@ -4091,21 +4094,21 @@
         <v>18</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="G52" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="2" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="D53" s="2">
         <v>17</v>
@@ -4114,21 +4117,21 @@
         <v>18</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="G53" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="2" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="D54" s="2">
         <v>17</v>
@@ -4137,21 +4140,21 @@
         <v>18</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="G54" t="s">
-        <v>426</v>
+        <v>475</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="2" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="D55" s="2">
         <v>17</v>
@@ -4160,21 +4163,21 @@
         <v>18</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="G55" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="32.4">
       <c r="A56" s="2" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="D56" s="2">
         <v>17</v>
@@ -4183,21 +4186,21 @@
         <v>18</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>469</v>
+        <v>449</v>
       </c>
       <c r="G56" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="2" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>449</v>
+        <v>436</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="D57" s="2">
         <v>17</v>
@@ -4206,21 +4209,21 @@
         <v>18</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>462</v>
+        <v>446</v>
       </c>
       <c r="G57" t="s">
-        <v>456</v>
+        <v>443</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="2" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="D58" s="2">
         <v>16</v>
@@ -4229,21 +4232,21 @@
         <v>17</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>468</v>
+        <v>448</v>
       </c>
       <c r="G58" t="s">
-        <v>429</v>
+        <v>418</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="2" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="D59" s="2">
         <v>16.5</v>
@@ -4252,21 +4255,21 @@
         <v>17.5</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="G59" t="s">
-        <v>430</v>
+        <v>419</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="32.4">
       <c r="A60" s="2" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>438</v>
+        <v>427</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="D60" s="2">
         <v>16</v>
@@ -4275,15 +4278,15 @@
         <v>17</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G60" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="17.399999999999999">
       <c r="A62" s="4" t="s">
-        <v>452</v>
+        <v>439</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -4294,13 +4297,13 @@
         <v>242</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="F64" s="5" t="s">
         <v>243</v>
@@ -4311,13 +4314,13 @@
     </row>
     <row r="65" spans="1:7">
       <c r="A65" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="B65" t="s">
-        <v>439</v>
+        <v>428</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>440</v>
+        <v>429</v>
       </c>
       <c r="D65" s="2">
         <v>16</v>
@@ -4326,21 +4329,21 @@
         <v>17</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>441</v>
+        <v>465</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>455</v>
+        <v>442</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" t="s">
-        <v>442</v>
+        <v>430</v>
       </c>
       <c r="B66" t="s">
-        <v>444</v>
+        <v>432</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>445</v>
+        <v>433</v>
       </c>
       <c r="D66" s="2">
         <v>16</v>
@@ -4349,21 +4352,21 @@
         <v>17</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>446</v>
+        <v>466</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>453</v>
+        <v>440</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" t="s">
-        <v>447</v>
+        <v>434</v>
       </c>
       <c r="B67" t="s">
-        <v>450</v>
+        <v>437</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>451</v>
+        <v>438</v>
       </c>
       <c r="D67" s="2">
         <v>16</v>
@@ -4372,10 +4375,10 @@
         <v>17</v>
       </c>
       <c r="F67" t="s">
-        <v>448</v>
+        <v>435</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>454</v>
+        <v>441</v>
       </c>
     </row>
   </sheetData>

--- a/doc/table.xlsx
+++ b/doc/table.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="477">
   <si>
     <t>主格</t>
   </si>
@@ -798,9 +798,6 @@
     <t>[ e ]</t>
   </si>
   <si>
-    <t>嘴形有 2 段變化，發長音的ㄟㄧ</t>
-  </si>
-  <si>
     <t>a</t>
   </si>
   <si>
@@ -870,9 +867,6 @@
     <t>[ b ]</t>
   </si>
   <si>
-    <t>發ㄅ音</t>
-  </si>
-  <si>
     <t>d、dd</t>
   </si>
   <si>
@@ -997,10 +991,6 @@
   </si>
   <si>
     <t>弱化音，發短音的ㄜ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>嘴形放鬆張開，先做ㄜ口型，再發短音的ㄨ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1525,10 +1515,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>下唇碰到上齒，透過唇齒縫隙吹氣，接近無聲，發音接近ㄈㄜ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>嘴形上下張大，發短音的ㄚ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1541,10 +1527,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>嘴形放鬆張開，發短音ㄜˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>舌尖往後上方捲，發長音的ㄦˋ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1557,10 +1539,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>發短音的ㄧㄝ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>si、su、ge</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1601,14 +1579,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>嘴形有 2 段變化，發ㄠˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>嘴形有 2 段變化，發ㄡㄧ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ee、ea、ie、ei、ey、e_e</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1625,11 +1595,47 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>it [ɪt]、twenty[ˋtwɛntɪ]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>accept [əkˋsɛpt]、king [kɪŋ]、rock [rɑk]、schedule [ˋskɛdʒul]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘴形放鬆張開，發短音ㄚˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>it [ɪt]、his[hɪz]、twenty[ˋtwɛntɪ]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>發短音的ㄧㄦ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下唇碰到上齒，透過唇齒縫隙吹氣，接近無聲，發音接近ㄈㄨ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>發ㄞㄧ音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>發ㄅ音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>發ㄠˋ音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>發ㄡㄧ音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘴形有 2 段變化，發長音的ㄟㄧ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘴形放鬆張開，發短音的ㄨ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3160,8 +3166,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F71" sqref="F71"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -3174,12 +3180,12 @@
   <sheetData>
     <row r="1" spans="1:7" ht="19.8">
       <c r="A1" s="3" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="17.399999999999999">
       <c r="A3" s="4" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -3187,33 +3193,33 @@
         <v>241</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C5" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>303</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>305</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>243</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="2" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D6" s="2">
         <v>17</v>
@@ -3225,18 +3231,18 @@
         <v>245</v>
       </c>
       <c r="G6" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="2" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="D7" s="2">
         <v>18</v>
@@ -3245,10 +3251,10 @@
         <v>19</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="G7" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3256,10 +3262,10 @@
         <v>246</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="D8" s="2">
         <v>15</v>
@@ -3268,10 +3274,10 @@
         <v>16</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="G8" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -3282,7 +3288,7 @@
         <v>248</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="D9" s="2">
         <v>15</v>
@@ -3291,21 +3297,21 @@
         <v>16</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>249</v>
+        <v>475</v>
       </c>
       <c r="G9" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>251</v>
-      </c>
       <c r="C10" s="2" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="D10" s="2">
         <v>19</v>
@@ -3314,21 +3320,21 @@
         <v>20</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="G10" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>253</v>
-      </c>
       <c r="C11" s="2" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="D11" s="2">
         <v>15</v>
@@ -3337,21 +3343,21 @@
         <v>16</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="G11" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>255</v>
-      </c>
       <c r="C12" s="2" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="D12" s="2">
         <v>15</v>
@@ -3360,21 +3366,21 @@
         <v>16</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G12" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>258</v>
-      </c>
       <c r="C13" s="2" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="D13" s="2">
         <v>17</v>
@@ -3383,21 +3389,21 @@
         <v>18</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G13" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="D14" s="2">
         <v>14.5</v>
@@ -3406,21 +3412,21 @@
         <v>15.5</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>313</v>
+        <v>476</v>
       </c>
       <c r="G14" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>261</v>
-      </c>
       <c r="C15" s="2" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="D15" s="2">
         <v>18</v>
@@ -3429,21 +3435,21 @@
         <v>19</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G15" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="D16" s="2">
         <v>18</v>
@@ -3452,21 +3458,21 @@
         <v>19</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>453</v>
+        <v>467</v>
       </c>
       <c r="G16" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="D17" s="2">
         <v>15</v>
@@ -3475,21 +3481,21 @@
         <v>16</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G17" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>264</v>
-      </c>
       <c r="C18" s="2" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="D18" s="2">
         <v>15</v>
@@ -3498,21 +3504,21 @@
         <v>16</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G18" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>267</v>
-      </c>
       <c r="C19" s="2" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="D19" s="2">
         <v>15</v>
@@ -3521,10 +3527,10 @@
         <v>16</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="G19" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -3534,7 +3540,7 @@
     </row>
     <row r="21" spans="1:7" ht="17.399999999999999">
       <c r="A21" s="4" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -3553,13 +3559,13 @@
         <v>242</v>
       </c>
       <c r="C23" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="E23" s="5" t="s">
         <v>303</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>305</v>
       </c>
       <c r="F23" s="5" t="s">
         <v>243</v>
@@ -3570,13 +3576,13 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="6" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D24" s="2">
         <v>18.5</v>
@@ -3584,22 +3590,22 @@
       <c r="E24" s="2">
         <v>19.5</v>
       </c>
-      <c r="F24" s="6">
-        <v>4</v>
+      <c r="F24" s="6" t="s">
+        <v>471</v>
       </c>
       <c r="G24" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>269</v>
-      </c>
       <c r="C25" s="2" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="D25" s="2">
         <v>18</v>
@@ -3608,21 +3614,21 @@
         <v>19</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="G25" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="2" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="D26" s="2">
         <v>18.5</v>
@@ -3631,10 +3637,10 @@
         <v>19.5</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="G26" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -3644,7 +3650,7 @@
     </row>
     <row r="28" spans="1:7" ht="19.8">
       <c r="A28" s="3" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -3657,7 +3663,7 @@
     </row>
     <row r="30" spans="1:7" ht="17.399999999999999">
       <c r="A30" s="4" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -3676,13 +3682,13 @@
         <v>242</v>
       </c>
       <c r="C32" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="E32" s="5" t="s">
         <v>303</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>305</v>
       </c>
       <c r="F32" s="5" t="s">
         <v>243</v>
@@ -3693,13 +3699,13 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>272</v>
-      </c>
       <c r="C33" s="2" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D33" s="2">
         <v>17</v>
@@ -3708,21 +3714,21 @@
         <v>18</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>273</v>
+        <v>472</v>
       </c>
       <c r="G33" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D34" s="2">
         <v>17</v>
@@ -3731,21 +3737,21 @@
         <v>18</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G34" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="D35" s="2">
         <v>17</v>
@@ -3754,21 +3760,21 @@
         <v>18</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G35" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="2" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="D36" s="2">
         <v>17</v>
@@ -3777,21 +3783,21 @@
         <v>18</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="G36" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="2" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="D37" s="2">
         <v>17</v>
@@ -3800,21 +3806,21 @@
         <v>18</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="G37" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="D38" s="2">
         <v>16</v>
@@ -3823,21 +3829,21 @@
         <v>18</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="G38" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="32.4">
       <c r="A39" s="2" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="D39" s="2">
         <v>16</v>
@@ -3846,21 +3852,21 @@
         <v>17</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="G39" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="32.4">
       <c r="A40" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D40" s="2">
         <v>16</v>
@@ -3869,21 +3875,21 @@
         <v>17</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="G40" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="32.4">
       <c r="A41" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D41" s="2">
         <v>17</v>
@@ -3892,21 +3898,21 @@
         <v>18</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="G41" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="32.4">
       <c r="A42" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D42" s="2">
         <v>22.5</v>
@@ -3915,21 +3921,21 @@
         <v>23.5</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="G42" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="2" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="D43" s="2">
         <v>17</v>
@@ -3938,21 +3944,21 @@
         <v>18</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="G43" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="32.4">
       <c r="A44" s="2" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="D44" s="2">
         <v>17</v>
@@ -3961,21 +3967,21 @@
         <v>18</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="G44" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="2" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="D45" s="2">
         <v>16</v>
@@ -3984,21 +3990,21 @@
         <v>17</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="G45" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="D46" s="2">
         <v>16</v>
@@ -4007,21 +4013,21 @@
         <v>17</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>457</v>
+        <v>469</v>
       </c>
       <c r="G46" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="D47" s="2">
         <v>16</v>
@@ -4030,10 +4036,10 @@
         <v>17</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="G47" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -4043,7 +4049,7 @@
     </row>
     <row r="49" spans="1:7" ht="17.399999999999999">
       <c r="A49" s="4" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
@@ -4062,13 +4068,13 @@
         <v>242</v>
       </c>
       <c r="C51" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="E51" s="5" t="s">
         <v>303</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="E51" s="5" t="s">
-        <v>305</v>
       </c>
       <c r="F51" s="5" t="s">
         <v>243</v>
@@ -4079,13 +4085,13 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="D52" s="2">
         <v>17</v>
@@ -4094,21 +4100,21 @@
         <v>18</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G52" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D53" s="2">
         <v>17</v>
@@ -4117,21 +4123,21 @@
         <v>18</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="G53" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="D54" s="2">
         <v>17</v>
@@ -4140,21 +4146,21 @@
         <v>18</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G54" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D55" s="2">
         <v>17</v>
@@ -4163,21 +4169,21 @@
         <v>18</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="G55" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="32.4">
       <c r="A56" s="2" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="D56" s="2">
         <v>17</v>
@@ -4186,21 +4192,21 @@
         <v>18</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>449</v>
+        <v>470</v>
       </c>
       <c r="G56" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D57" s="2">
         <v>17</v>
@@ -4209,21 +4215,21 @@
         <v>18</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="G57" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="2" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="D58" s="2">
         <v>16</v>
@@ -4232,21 +4238,21 @@
         <v>17</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="G58" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="D59" s="2">
         <v>16.5</v>
@@ -4255,21 +4261,21 @@
         <v>17.5</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="G59" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="32.4">
       <c r="A60" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="D60" s="2">
         <v>16</v>
@@ -4278,15 +4284,15 @@
         <v>17</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="G60" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="17.399999999999999">
       <c r="A62" s="4" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -4297,13 +4303,13 @@
         <v>242</v>
       </c>
       <c r="C64" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="E64" s="5" t="s">
         <v>303</v>
-      </c>
-      <c r="D64" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="E64" s="5" t="s">
-        <v>305</v>
       </c>
       <c r="F64" s="5" t="s">
         <v>243</v>
@@ -4314,13 +4320,13 @@
     </row>
     <row r="65" spans="1:7">
       <c r="A65" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B65" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="D65" s="2">
         <v>16</v>
@@ -4329,21 +4335,21 @@
         <v>17</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" t="s">
+        <v>427</v>
+      </c>
+      <c r="B66" t="s">
+        <v>429</v>
+      </c>
+      <c r="C66" s="2" t="s">
         <v>430</v>
-      </c>
-      <c r="B66" t="s">
-        <v>432</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>433</v>
       </c>
       <c r="D66" s="2">
         <v>16</v>
@@ -4352,21 +4358,21 @@
         <v>17</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" t="s">
+        <v>431</v>
+      </c>
+      <c r="B67" t="s">
         <v>434</v>
       </c>
-      <c r="B67" t="s">
-        <v>437</v>
-      </c>
       <c r="C67" s="2" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="D67" s="2">
         <v>16</v>
@@ -4375,10 +4381,10 @@
         <v>17</v>
       </c>
       <c r="F67" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
     </row>
   </sheetData>

--- a/doc/table.xlsx
+++ b/doc/table.xlsx
@@ -1607,10 +1607,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>發短音的ㄧㄦ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>下唇碰到上齒，透過唇齒縫隙吹氣，接近無聲，發音接近ㄈㄨ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1636,6 +1632,10 @@
   </si>
   <si>
     <t>嘴形放鬆張開，發短音的ㄨ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>發短音的ㄧ˙</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3166,8 +3166,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -3297,7 +3297,7 @@
         <v>16</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="G9" t="s">
         <v>385</v>
@@ -3412,7 +3412,7 @@
         <v>15.5</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="G14" t="s">
         <v>390</v>
@@ -3591,7 +3591,7 @@
         <v>19.5</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="G24" t="s">
         <v>418</v>
@@ -3614,7 +3614,7 @@
         <v>19</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="G25" t="s">
         <v>419</v>
@@ -3637,7 +3637,7 @@
         <v>19.5</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="G26" t="s">
         <v>420</v>
@@ -3714,7 +3714,7 @@
         <v>18</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="G33" t="s">
         <v>396</v>
@@ -4013,7 +4013,7 @@
         <v>17</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>469</v>
+        <v>476</v>
       </c>
       <c r="G46" t="s">
         <v>409</v>
@@ -4192,7 +4192,7 @@
         <v>18</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="G56" t="s">
         <v>414</v>

--- a/doc/table.xlsx
+++ b/doc/table.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="12" windowWidth="19200" windowHeight="11868" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="12" windowWidth="19200" windowHeight="11868"/>
   </bookViews>
   <sheets>
     <sheet name="不規則動詞" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="481">
   <si>
     <t>主格</t>
   </si>
@@ -1636,6 +1636,22 @@
   </si>
   <si>
     <t>發短音的ㄧ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eaten</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吃</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2033,10 +2049,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D58"/>
+  <dimension ref="A1:D59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -2063,799 +2079,813 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>480</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>477</v>
       </c>
       <c r="C2" t="s">
-        <v>60</v>
+        <v>478</v>
       </c>
       <c r="D2" t="s">
-        <v>60</v>
+        <v>479</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C6" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D6" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C7" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B8" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C8" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D8" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B9" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C9" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D9" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B10" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C10" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D10" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B11" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B12" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B13" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C13" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="D13" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B14" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C14" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="D14" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B15" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C15" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D15" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B16" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C16" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D16" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B17" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C17" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D17" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B18" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C18" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D18" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B19" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C19" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D19" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B20" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C20" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D20" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B21" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C21" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D21" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B22" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C22" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D22" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B23" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C23" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D23" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B24" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C24" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D24" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B25" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C25" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D25" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B26" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C26" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D26" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B27" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C27" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D27" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B28" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C28" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D28" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B29" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C29" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D29" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B30" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C30" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D30" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B31" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C31" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D31" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B32" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C32" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D32" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B33" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C33" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D33" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B34" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C34" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D34" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B35" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C35" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D35" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B36" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C36" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D36" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B37" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C37" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D37" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B38" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C38" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D38" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B39" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C39" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D39" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B40" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C40" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D40" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B41" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C41" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D41" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B42" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C42" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D42" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B43" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C43" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D43" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B44" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C44" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D44" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B45" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C45" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D45" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B46" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C46" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D46" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B47" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C47" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D47" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B48" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C48" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D48" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B49" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C49" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D49" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B50" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C50" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D50" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B51" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C51" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D51" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B52" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C52" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D52" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B53" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C53" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D53" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B54" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C54" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D54" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B55" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C55" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D55" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B56" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C56" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D56" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B57" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C57" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D57" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
+        <v>234</v>
+      </c>
+      <c r="B58" t="s">
+        <v>235</v>
+      </c>
+      <c r="C58" t="s">
+        <v>236</v>
+      </c>
+      <c r="D58" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
         <v>237</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B59" t="s">
         <v>238</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C59" t="s">
         <v>239</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D59" t="s">
         <v>240</v>
       </c>
     </row>
@@ -3166,7 +3196,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A55" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
